--- a/Project Krabappel/Krabappel template.xlsx
+++ b/Project Krabappel/Krabappel template.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="15600" windowHeight="11760"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="15600" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Doe" sheetId="2" r:id="rId1"/>
-    <sheet name="controls" sheetId="4" r:id="rId2"/>
+    <sheet name="Inelig" sheetId="5" r:id="rId2"/>
+    <sheet name="controls" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1265" uniqueCount="540">
   <si>
     <t>Last Name</t>
   </si>
@@ -1620,6 +1621,21 @@
   </si>
   <si>
     <t>ORANGE MEANS I NEED TO TEST THIS</t>
+  </si>
+  <si>
+    <t>Inelig</t>
+  </si>
+  <si>
+    <t>Jorge</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Big Corp, Inc</t>
+  </si>
+  <si>
+    <t>09</t>
   </si>
 </sst>
 </file>
@@ -1627,8 +1643,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="00"/>
-    <numFmt numFmtId="166" formatCode="mm/dd/yyyy"/>
+    <numFmt numFmtId="164" formatCode="00"/>
+    <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -1805,7 +1821,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1827,8 +1843,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1847,6 +1863,97 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1872,6 +1979,21 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1881,121 +2003,15 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="4" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2350,7 +2366,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:V503"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
@@ -2368,14 +2384,14 @@
       <c r="A1" s="45" t="s">
         <v>522</v>
       </c>
-      <c r="M1" s="119" t="s">
+      <c r="M1" s="85" t="s">
         <v>534</v>
       </c>
-      <c r="N1" s="119"/>
-      <c r="O1" s="119"/>
-      <c r="P1" s="119"/>
-      <c r="Q1" s="119"/>
-      <c r="R1" s="119"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="85"/>
+      <c r="P1" s="85"/>
+      <c r="Q1" s="85"/>
+      <c r="R1" s="85"/>
     </row>
     <row r="2" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
@@ -2424,7 +2440,7 @@
       <c r="K4" s="10"/>
     </row>
     <row r="5" spans="1:18" s="13" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="101" t="s">
         <v>25</v>
       </c>
       <c r="B5" s="12" t="s">
@@ -2444,7 +2460,7 @@
       </c>
     </row>
     <row r="6" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="47"/>
+      <c r="A6" s="102"/>
       <c r="B6" s="14" t="s">
         <v>1</v>
       </c>
@@ -2462,7 +2478,7 @@
       </c>
     </row>
     <row r="7" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="47"/>
+      <c r="A7" s="102"/>
       <c r="B7" s="14" t="s">
         <v>285</v>
       </c>
@@ -2480,7 +2496,7 @@
       </c>
     </row>
     <row r="8" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="47"/>
+      <c r="A8" s="102"/>
       <c r="B8" s="14" t="s">
         <v>15</v>
       </c>
@@ -2498,7 +2514,7 @@
       </c>
     </row>
     <row r="9" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="47"/>
+      <c r="A9" s="102"/>
       <c r="B9" s="14" t="s">
         <v>488</v>
       </c>
@@ -2516,7 +2532,7 @@
       </c>
     </row>
     <row r="10" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="47"/>
+      <c r="A10" s="102"/>
       <c r="B10" s="14" t="s">
         <v>3</v>
       </c>
@@ -2534,7 +2550,7 @@
       </c>
     </row>
     <row r="11" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="47"/>
+      <c r="A11" s="102"/>
       <c r="B11" s="14" t="s">
         <v>490</v>
       </c>
@@ -2552,7 +2568,7 @@
       </c>
     </row>
     <row r="12" spans="1:18" s="17" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="47"/>
+      <c r="A12" s="102"/>
       <c r="B12" s="16" t="s">
         <v>286</v>
       </c>
@@ -2570,7 +2586,7 @@
       </c>
     </row>
     <row r="13" spans="1:18" s="17" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="47"/>
+      <c r="A13" s="102"/>
       <c r="B13" s="16" t="s">
         <v>287</v>
       </c>
@@ -2588,7 +2604,7 @@
       </c>
     </row>
     <row r="14" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="47"/>
+      <c r="A14" s="102"/>
       <c r="B14" s="14" t="s">
         <v>288</v>
       </c>
@@ -2606,7 +2622,7 @@
       </c>
     </row>
     <row r="15" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="47"/>
+      <c r="A15" s="102"/>
       <c r="B15" s="14" t="s">
         <v>289</v>
       </c>
@@ -2624,7 +2640,7 @@
       </c>
     </row>
     <row r="16" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="48"/>
+      <c r="A16" s="103"/>
       <c r="B16" s="18" t="s">
         <v>290</v>
       </c>
@@ -2642,7 +2658,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" s="13" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="46" t="s">
+      <c r="A17" s="101" t="s">
         <v>291</v>
       </c>
       <c r="B17" s="12" t="s">
@@ -2662,7 +2678,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" s="17" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="47"/>
+      <c r="A18" s="102"/>
       <c r="B18" s="16" t="s">
         <v>292</v>
       </c>
@@ -2674,7 +2690,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" s="17" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="47"/>
+      <c r="A19" s="102"/>
       <c r="B19" s="16" t="s">
         <v>478</v>
       </c>
@@ -2692,7 +2708,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="48"/>
+      <c r="A20" s="103"/>
       <c r="B20" s="18" t="s">
         <v>293</v>
       </c>
@@ -2710,7 +2726,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" s="13" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="54" t="s">
+      <c r="A21" s="114" t="s">
         <v>7</v>
       </c>
       <c r="B21" s="36" t="s">
@@ -2721,7 +2737,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="55"/>
+      <c r="A22" s="115"/>
       <c r="B22" s="37" t="s">
         <v>295</v>
       </c>
@@ -2730,7 +2746,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="55"/>
+      <c r="A23" s="115"/>
       <c r="B23" s="37" t="s">
         <v>5</v>
       </c>
@@ -2739,7 +2755,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" s="33" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="55"/>
+      <c r="A24" s="115"/>
       <c r="B24" s="40" t="s">
         <v>6</v>
       </c>
@@ -2748,7 +2764,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" s="17" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="55"/>
+      <c r="A25" s="115"/>
       <c r="B25" s="38" t="s">
         <v>296</v>
       </c>
@@ -2757,7 +2773,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" s="17" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="55"/>
+      <c r="A26" s="115"/>
       <c r="B26" s="38" t="s">
         <v>492</v>
       </c>
@@ -2766,7 +2782,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="55"/>
+      <c r="A27" s="115"/>
       <c r="B27" s="37" t="s">
         <v>297</v>
       </c>
@@ -2775,7 +2791,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="55"/>
+      <c r="A28" s="115"/>
       <c r="B28" s="37" t="s">
         <v>298</v>
       </c>
@@ -2784,31 +2800,31 @@
       </c>
     </row>
     <row r="29" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="55"/>
+      <c r="A29" s="115"/>
       <c r="B29" s="37" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="30" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="55"/>
+      <c r="A30" s="115"/>
       <c r="B30" s="37" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="31" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="55"/>
+      <c r="A31" s="115"/>
       <c r="B31" s="37" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="32" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="55"/>
+      <c r="A32" s="115"/>
       <c r="B32" s="37" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="33" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="55"/>
+      <c r="A33" s="115"/>
       <c r="B33" s="37" t="s">
         <v>483</v>
       </c>
@@ -2817,19 +2833,19 @@
       </c>
     </row>
     <row r="34" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="55"/>
+      <c r="A34" s="115"/>
       <c r="B34" s="37" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="35" spans="1:22" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="56"/>
+      <c r="A35" s="116"/>
       <c r="B35" s="39" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="36" spans="1:22" s="13" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="49" t="s">
+      <c r="A36" s="104" t="s">
         <v>10</v>
       </c>
       <c r="B36" s="20" t="s">
@@ -2865,7 +2881,7 @@
       <c r="V36" s="8"/>
     </row>
     <row r="37" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="50"/>
+      <c r="A37" s="105"/>
       <c r="B37" s="21" t="s">
         <v>304</v>
       </c>
@@ -2883,7 +2899,7 @@
       </c>
     </row>
     <row r="38" spans="1:22" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="51"/>
+      <c r="A38" s="106"/>
       <c r="B38" s="22" t="s">
         <v>305</v>
       </c>
@@ -2928,7 +2944,7 @@
       </c>
     </row>
     <row r="40" spans="1:22" s="13" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="52" t="s">
+      <c r="A40" s="107" t="s">
         <v>9</v>
       </c>
       <c r="B40" s="41" t="s">
@@ -2936,16 +2952,16 @@
       </c>
     </row>
     <row r="41" spans="1:22" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="53"/>
+      <c r="A41" s="108"/>
       <c r="B41" s="42" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="42" spans="1:22" s="13" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="69" t="s">
+      <c r="A42" s="112" t="s">
         <v>283</v>
       </c>
-      <c r="B42" s="70" t="s">
+      <c r="B42" s="55" t="s">
         <v>284</v>
       </c>
       <c r="C42" s="8" t="s">
@@ -2953,8 +2969,8 @@
       </c>
     </row>
     <row r="43" spans="1:22" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="71"/>
-      <c r="B43" s="72" t="s">
+      <c r="A43" s="113"/>
+      <c r="B43" s="56" t="s">
         <v>263</v>
       </c>
       <c r="C43" s="23" t="s">
@@ -2962,10 +2978,10 @@
       </c>
     </row>
     <row r="44" spans="1:22" s="13" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="61" t="s">
+      <c r="A44" s="86" t="s">
         <v>117</v>
       </c>
-      <c r="B44" s="62" t="s">
+      <c r="B44" s="50" t="s">
         <v>118</v>
       </c>
       <c r="C44" s="24" t="s">
@@ -2973,17 +2989,17 @@
       </c>
     </row>
     <row r="45" spans="1:22" s="17" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="63"/>
-      <c r="B45" s="64" t="s">
+      <c r="A45" s="87"/>
+      <c r="B45" s="51" t="s">
         <v>119</v>
       </c>
-      <c r="C45" s="57">
+      <c r="C45" s="46">
         <v>123456789</v>
       </c>
     </row>
     <row r="46" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="63"/>
-      <c r="B46" s="65" t="s">
+      <c r="A46" s="87"/>
+      <c r="B46" s="52" t="s">
         <v>120</v>
       </c>
       <c r="C46" s="15" t="s">
@@ -2991,8 +3007,8 @@
       </c>
     </row>
     <row r="47" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="63"/>
-      <c r="B47" s="65" t="s">
+      <c r="A47" s="87"/>
+      <c r="B47" s="52" t="s">
         <v>121</v>
       </c>
       <c r="C47" s="15">
@@ -3000,8 +3016,8 @@
       </c>
     </row>
     <row r="48" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="63"/>
-      <c r="B48" s="65" t="s">
+      <c r="A48" s="87"/>
+      <c r="B48" s="52" t="s">
         <v>122</v>
       </c>
       <c r="C48" s="15">
@@ -3009,24 +3025,24 @@
       </c>
     </row>
     <row r="49" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="63"/>
-      <c r="B49" s="65" t="s">
+      <c r="A49" s="87"/>
+      <c r="B49" s="52" t="s">
         <v>123</v>
       </c>
-      <c r="C49" s="58">
+      <c r="C49" s="47">
         <v>41944</v>
       </c>
     </row>
     <row r="50" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="63"/>
-      <c r="B50" s="65" t="s">
+      <c r="A50" s="87"/>
+      <c r="B50" s="52" t="s">
         <v>124</v>
       </c>
       <c r="C50" s="15"/>
     </row>
     <row r="51" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="63"/>
-      <c r="B51" s="65" t="s">
+      <c r="A51" s="87"/>
+      <c r="B51" s="52" t="s">
         <v>125</v>
       </c>
       <c r="C51" s="15" t="s">
@@ -3034,8 +3050,8 @@
       </c>
     </row>
     <row r="52" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="63"/>
-      <c r="B52" s="65" t="s">
+      <c r="A52" s="87"/>
+      <c r="B52" s="52" t="s">
         <v>126</v>
       </c>
       <c r="C52" s="15" t="s">
@@ -3043,8 +3059,8 @@
       </c>
     </row>
     <row r="53" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="63"/>
-      <c r="B53" s="65" t="s">
+      <c r="A53" s="87"/>
+      <c r="B53" s="52" t="s">
         <v>127</v>
       </c>
       <c r="C53" s="15" t="s">
@@ -3052,8 +3068,8 @@
       </c>
     </row>
     <row r="54" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="63"/>
-      <c r="B54" s="65" t="s">
+      <c r="A54" s="87"/>
+      <c r="B54" s="52" t="s">
         <v>128</v>
       </c>
       <c r="C54" s="15" t="s">
@@ -3061,8 +3077,8 @@
       </c>
     </row>
     <row r="55" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="63"/>
-      <c r="B55" s="65" t="s">
+      <c r="A55" s="87"/>
+      <c r="B55" s="52" t="s">
         <v>129</v>
       </c>
       <c r="C55" s="15" t="s">
@@ -3070,8 +3086,8 @@
       </c>
     </row>
     <row r="56" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="63"/>
-      <c r="B56" s="65" t="s">
+      <c r="A56" s="87"/>
+      <c r="B56" s="52" t="s">
         <v>130</v>
       </c>
       <c r="C56" s="15" t="s">
@@ -3079,815 +3095,815 @@
       </c>
     </row>
     <row r="57" spans="1:3" s="17" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="63"/>
-      <c r="B57" s="64" t="s">
+      <c r="A57" s="87"/>
+      <c r="B57" s="51" t="s">
         <v>131</v>
       </c>
-      <c r="C57" s="57" t="s">
+      <c r="C57" s="46" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="58" spans="1:3" s="17" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="63"/>
-      <c r="B58" s="64" t="s">
+      <c r="A58" s="87"/>
+      <c r="B58" s="51" t="s">
         <v>132</v>
       </c>
-      <c r="C58" s="57"/>
-    </row>
-    <row r="59" spans="1:3" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="66"/>
-      <c r="B59" s="67" t="s">
+      <c r="C58" s="46"/>
+    </row>
+    <row r="59" spans="1:3" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="88"/>
+      <c r="B59" s="53" t="s">
         <v>133</v>
       </c>
-      <c r="C59" s="59"/>
+      <c r="C59" s="48"/>
     </row>
     <row r="60" spans="1:3" s="13" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="95" t="s">
+      <c r="A60" s="89" t="s">
         <v>364</v>
       </c>
-      <c r="B60" s="96" t="s">
+      <c r="B60" s="70" t="s">
         <v>365</v>
       </c>
       <c r="C60" s="24"/>
     </row>
     <row r="61" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="97"/>
-      <c r="B61" s="98" t="s">
+      <c r="A61" s="90"/>
+      <c r="B61" s="71" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="62" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="97"/>
-      <c r="B62" s="98" t="str">
+      <c r="A62" s="90"/>
+      <c r="B62" s="71" t="str">
         <f>B61 &amp; " Verified (Y/N)"</f>
         <v>Heat Amount Verified (Y/N)</v>
       </c>
       <c r="C62" s="15"/>
     </row>
     <row r="63" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="97"/>
-      <c r="B63" s="98" t="s">
+      <c r="A63" s="90"/>
+      <c r="B63" s="71" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="64" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="97"/>
-      <c r="B64" s="98" t="str">
+      <c r="A64" s="90"/>
+      <c r="B64" s="71" t="str">
         <f>B63 &amp; " Verified (Y/N)"</f>
         <v>Air Amount Verified (Y/N)</v>
       </c>
     </row>
     <row r="65" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="97"/>
-      <c r="B65" s="98" t="s">
+      <c r="A65" s="90"/>
+      <c r="B65" s="71" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="66" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="97"/>
-      <c r="B66" s="98" t="str">
+      <c r="A66" s="90"/>
+      <c r="B66" s="71" t="str">
         <f>B65 &amp; " Verified (Y/N)"</f>
         <v>Electric Amount Verified (Y/N)</v>
       </c>
     </row>
     <row r="67" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="97"/>
-      <c r="B67" s="98" t="s">
+      <c r="A67" s="90"/>
+      <c r="B67" s="71" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="68" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="97"/>
-      <c r="B68" s="98" t="str">
+      <c r="A68" s="90"/>
+      <c r="B68" s="71" t="str">
         <f>B67 &amp; " Verified (Y/N)"</f>
         <v>Fuel Amount Verified (Y/N)</v>
       </c>
     </row>
     <row r="69" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="97"/>
-      <c r="B69" s="98" t="s">
+      <c r="A69" s="90"/>
+      <c r="B69" s="71" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="70" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="97"/>
-      <c r="B70" s="98" t="str">
+      <c r="A70" s="90"/>
+      <c r="B70" s="71" t="str">
         <f>B69 &amp; " Verified (Y/N)"</f>
         <v>Garbage Amount Verified (Y/N)</v>
       </c>
     </row>
     <row r="71" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="97"/>
-      <c r="B71" s="98" t="s">
+      <c r="A71" s="90"/>
+      <c r="B71" s="71" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="72" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="97"/>
-      <c r="B72" s="98" t="str">
+      <c r="A72" s="90"/>
+      <c r="B72" s="71" t="str">
         <f>B71 &amp; " Verified (Y/N)"</f>
         <v>Water Amount Verified (Y/N)</v>
       </c>
     </row>
     <row r="73" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="97"/>
-      <c r="B73" s="98" t="s">
+      <c r="A73" s="90"/>
+      <c r="B73" s="71" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="74" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="97"/>
-      <c r="B74" s="98" t="str">
+      <c r="A74" s="90"/>
+      <c r="B74" s="71" t="str">
         <f>B73 &amp; " Verified (Y/N)"</f>
         <v>Sewer Amount Verified (Y/N)</v>
       </c>
     </row>
     <row r="75" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="97"/>
-      <c r="B75" s="98" t="s">
+      <c r="A75" s="90"/>
+      <c r="B75" s="71" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="76" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="97"/>
-      <c r="B76" s="98" t="str">
+      <c r="A76" s="90"/>
+      <c r="B76" s="71" t="str">
         <f>B75 &amp; " Verified (Y/N)"</f>
         <v>Other Acut Amount Verified (Y/N)</v>
       </c>
     </row>
     <row r="77" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="99"/>
-      <c r="B77" s="100" t="s">
+      <c r="A77" s="91"/>
+      <c r="B77" s="72" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="78" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="95" t="s">
+      <c r="A78" s="89" t="s">
         <v>180</v>
       </c>
-      <c r="B78" s="96" t="s">
+      <c r="B78" s="70" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A79" s="97"/>
-      <c r="B79" s="98" t="s">
+      <c r="A79" s="90"/>
+      <c r="B79" s="71" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80" s="97"/>
-      <c r="B80" s="98" t="s">
+      <c r="A80" s="90"/>
+      <c r="B80" s="71" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A81" s="97"/>
-      <c r="B81" s="98" t="s">
+      <c r="A81" s="90"/>
+      <c r="B81" s="71" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82" s="97"/>
-      <c r="B82" s="98" t="s">
+      <c r="A82" s="90"/>
+      <c r="B82" s="71" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83" s="97"/>
-      <c r="B83" s="98" t="s">
+      <c r="A83" s="90"/>
+      <c r="B83" s="71" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84" s="97"/>
-      <c r="B84" s="98" t="s">
+      <c r="A84" s="90"/>
+      <c r="B84" s="71" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A85" s="97"/>
-      <c r="B85" s="98" t="s">
+      <c r="A85" s="90"/>
+      <c r="B85" s="71" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86" s="97"/>
-      <c r="B86" s="98" t="s">
+      <c r="A86" s="90"/>
+      <c r="B86" s="71" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A87" s="97"/>
-      <c r="B87" s="98" t="s">
+      <c r="A87" s="90"/>
+      <c r="B87" s="71" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A88" s="97"/>
-      <c r="B88" s="98" t="s">
+      <c r="A88" s="90"/>
+      <c r="B88" s="71" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A89" s="97"/>
-      <c r="B89" s="98" t="s">
+      <c r="A89" s="90"/>
+      <c r="B89" s="71" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A90" s="97"/>
-      <c r="B90" s="98" t="s">
+      <c r="A90" s="90"/>
+      <c r="B90" s="71" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A91" s="97"/>
-      <c r="B91" s="98" t="s">
+      <c r="A91" s="90"/>
+      <c r="B91" s="71" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A92" s="97"/>
-      <c r="B92" s="98" t="s">
+      <c r="A92" s="90"/>
+      <c r="B92" s="71" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A93" s="97"/>
-      <c r="B93" s="98" t="s">
+      <c r="A93" s="90"/>
+      <c r="B93" s="71" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A94" s="97"/>
-      <c r="B94" s="98" t="s">
+      <c r="A94" s="90"/>
+      <c r="B94" s="71" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A95" s="97"/>
-      <c r="B95" s="98" t="s">
+      <c r="A95" s="90"/>
+      <c r="B95" s="71" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A96" s="97"/>
-      <c r="B96" s="98" t="s">
+      <c r="A96" s="90"/>
+      <c r="B96" s="71" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A97" s="97"/>
-      <c r="B97" s="98" t="s">
+      <c r="A97" s="90"/>
+      <c r="B97" s="71" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A98" s="97"/>
-      <c r="B98" s="98" t="s">
+      <c r="A98" s="90"/>
+      <c r="B98" s="71" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A99" s="97"/>
-      <c r="B99" s="98" t="s">
+      <c r="A99" s="90"/>
+      <c r="B99" s="71" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A100" s="97"/>
-      <c r="B100" s="98" t="s">
+      <c r="A100" s="90"/>
+      <c r="B100" s="71" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A101" s="97"/>
-      <c r="B101" s="98" t="s">
+      <c r="A101" s="90"/>
+      <c r="B101" s="71" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A102" s="97"/>
-      <c r="B102" s="98" t="s">
+      <c r="A102" s="90"/>
+      <c r="B102" s="71" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A103" s="97"/>
-      <c r="B103" s="98" t="s">
+      <c r="A103" s="90"/>
+      <c r="B103" s="71" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A104" s="97"/>
-      <c r="B104" s="98" t="s">
+      <c r="A104" s="90"/>
+      <c r="B104" s="71" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A105" s="97"/>
-      <c r="B105" s="98" t="s">
+      <c r="A105" s="90"/>
+      <c r="B105" s="71" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A106" s="97"/>
-      <c r="B106" s="98" t="s">
+      <c r="A106" s="90"/>
+      <c r="B106" s="71" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A107" s="97"/>
-      <c r="B107" s="98" t="s">
+      <c r="A107" s="90"/>
+      <c r="B107" s="71" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A108" s="97"/>
-      <c r="B108" s="98" t="s">
+      <c r="A108" s="90"/>
+      <c r="B108" s="71" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A109" s="97"/>
-      <c r="B109" s="98" t="s">
+      <c r="A109" s="90"/>
+      <c r="B109" s="71" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A110" s="97"/>
-      <c r="B110" s="98" t="s">
+      <c r="A110" s="90"/>
+      <c r="B110" s="71" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="111" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="99"/>
-      <c r="B111" s="100" t="s">
+      <c r="A111" s="91"/>
+      <c r="B111" s="72" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="112" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="95" t="s">
+      <c r="A112" s="89" t="s">
         <v>102</v>
       </c>
-      <c r="B112" s="96" t="s">
+      <c r="B112" s="70" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A113" s="97"/>
-      <c r="B113" s="98" t="s">
+      <c r="A113" s="90"/>
+      <c r="B113" s="71" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A114" s="97"/>
-      <c r="B114" s="98" t="s">
+      <c r="A114" s="90"/>
+      <c r="B114" s="71" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A115" s="97"/>
-      <c r="B115" s="98" t="s">
+      <c r="A115" s="90"/>
+      <c r="B115" s="71" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A116" s="97"/>
-      <c r="B116" s="98" t="s">
+      <c r="A116" s="90"/>
+      <c r="B116" s="71" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A117" s="97"/>
-      <c r="B117" s="98" t="s">
+      <c r="A117" s="90"/>
+      <c r="B117" s="71" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A118" s="97"/>
-      <c r="B118" s="98" t="s">
+      <c r="A118" s="90"/>
+      <c r="B118" s="71" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A119" s="97"/>
-      <c r="B119" s="98" t="s">
+      <c r="A119" s="90"/>
+      <c r="B119" s="71" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A120" s="97"/>
-      <c r="B120" s="98" t="s">
+      <c r="A120" s="90"/>
+      <c r="B120" s="71" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A121" s="97"/>
-      <c r="B121" s="98" t="s">
+      <c r="A121" s="90"/>
+      <c r="B121" s="71" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A122" s="97"/>
-      <c r="B122" s="98" t="s">
+      <c r="A122" s="90"/>
+      <c r="B122" s="71" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A123" s="97"/>
-      <c r="B123" s="98" t="s">
+      <c r="A123" s="90"/>
+      <c r="B123" s="71" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A124" s="97"/>
-      <c r="B124" s="98" t="s">
+      <c r="A124" s="90"/>
+      <c r="B124" s="71" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A125" s="97"/>
-      <c r="B125" s="98" t="s">
+      <c r="A125" s="90"/>
+      <c r="B125" s="71" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="126" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="99"/>
-      <c r="B126" s="100" t="s">
+      <c r="A126" s="91"/>
+      <c r="B126" s="72" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="127" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="101" t="s">
+      <c r="A127" s="73" t="s">
         <v>134</v>
       </c>
-      <c r="B127" s="102" t="s">
+      <c r="B127" s="74" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="128" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="95" t="s">
+      <c r="A128" s="89" t="s">
         <v>405</v>
       </c>
-      <c r="B128" s="96" t="s">
+      <c r="B128" s="70" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A129" s="97"/>
-      <c r="B129" s="98" t="s">
+      <c r="A129" s="90"/>
+      <c r="B129" s="71" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A130" s="97"/>
-      <c r="B130" s="98" t="s">
+      <c r="A130" s="90"/>
+      <c r="B130" s="71" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A131" s="97"/>
-      <c r="B131" s="98" t="s">
+      <c r="A131" s="90"/>
+      <c r="B131" s="71" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A132" s="97"/>
-      <c r="B132" s="98" t="s">
+      <c r="A132" s="90"/>
+      <c r="B132" s="71" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A133" s="97"/>
-      <c r="B133" s="98" t="s">
+      <c r="A133" s="90"/>
+      <c r="B133" s="71" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A134" s="97"/>
-      <c r="B134" s="98" t="s">
+      <c r="A134" s="90"/>
+      <c r="B134" s="71" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A135" s="97"/>
-      <c r="B135" s="98" t="s">
+      <c r="A135" s="90"/>
+      <c r="B135" s="71" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A136" s="97"/>
-      <c r="B136" s="98" t="s">
+      <c r="A136" s="90"/>
+      <c r="B136" s="71" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A137" s="97"/>
-      <c r="B137" s="98" t="s">
+      <c r="A137" s="90"/>
+      <c r="B137" s="71" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A138" s="97"/>
-      <c r="B138" s="98" t="s">
+      <c r="A138" s="90"/>
+      <c r="B138" s="71" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A139" s="97"/>
-      <c r="B139" s="98" t="s">
+      <c r="A139" s="90"/>
+      <c r="B139" s="71" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A140" s="97"/>
-      <c r="B140" s="98" t="s">
+      <c r="A140" s="90"/>
+      <c r="B140" s="71" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A141" s="97"/>
-      <c r="B141" s="98" t="s">
+      <c r="A141" s="90"/>
+      <c r="B141" s="71" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A142" s="97"/>
-      <c r="B142" s="98" t="s">
+      <c r="A142" s="90"/>
+      <c r="B142" s="71" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A143" s="97"/>
-      <c r="B143" s="98" t="s">
+      <c r="A143" s="90"/>
+      <c r="B143" s="71" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A144" s="97"/>
-      <c r="B144" s="98" t="s">
+      <c r="A144" s="90"/>
+      <c r="B144" s="71" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A145" s="97"/>
-      <c r="B145" s="98" t="s">
+      <c r="A145" s="90"/>
+      <c r="B145" s="71" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A146" s="97"/>
-      <c r="B146" s="98" t="s">
+      <c r="A146" s="90"/>
+      <c r="B146" s="71" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A147" s="97"/>
-      <c r="B147" s="98" t="s">
+      <c r="A147" s="90"/>
+      <c r="B147" s="71" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A148" s="97"/>
-      <c r="B148" s="98" t="s">
+      <c r="A148" s="90"/>
+      <c r="B148" s="71" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A149" s="97"/>
-      <c r="B149" s="98" t="s">
+      <c r="A149" s="90"/>
+      <c r="B149" s="71" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A150" s="97"/>
-      <c r="B150" s="98" t="s">
+      <c r="A150" s="90"/>
+      <c r="B150" s="71" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A151" s="97"/>
-      <c r="B151" s="98" t="s">
+      <c r="A151" s="90"/>
+      <c r="B151" s="71" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A152" s="97"/>
-      <c r="B152" s="98" t="s">
+      <c r="A152" s="90"/>
+      <c r="B152" s="71" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A153" s="97"/>
-      <c r="B153" s="98" t="s">
+      <c r="A153" s="90"/>
+      <c r="B153" s="71" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="154" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="99"/>
-      <c r="B154" s="100" t="s">
+      <c r="A154" s="91"/>
+      <c r="B154" s="72" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="155" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="95" t="s">
+      <c r="A155" s="89" t="s">
         <v>321</v>
       </c>
-      <c r="B155" s="96" t="s">
+      <c r="B155" s="70" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A156" s="97"/>
-      <c r="B156" s="98" t="s">
+      <c r="A156" s="90"/>
+      <c r="B156" s="71" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A157" s="97"/>
-      <c r="B157" s="98" t="s">
+      <c r="A157" s="90"/>
+      <c r="B157" s="71" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A158" s="97"/>
-      <c r="B158" s="98" t="s">
+      <c r="A158" s="90"/>
+      <c r="B158" s="71" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A159" s="97"/>
-      <c r="B159" s="98" t="s">
+      <c r="A159" s="90"/>
+      <c r="B159" s="71" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A160" s="97"/>
-      <c r="B160" s="98" t="s">
+      <c r="A160" s="90"/>
+      <c r="B160" s="71" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A161" s="97"/>
-      <c r="B161" s="98" t="s">
+      <c r="A161" s="90"/>
+      <c r="B161" s="71" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A162" s="97"/>
-      <c r="B162" s="98" t="s">
+      <c r="A162" s="90"/>
+      <c r="B162" s="71" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A163" s="97"/>
-      <c r="B163" s="98" t="s">
+      <c r="A163" s="90"/>
+      <c r="B163" s="71" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A164" s="97"/>
-      <c r="B164" s="98" t="s">
+      <c r="A164" s="90"/>
+      <c r="B164" s="71" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A165" s="97"/>
-      <c r="B165" s="98" t="s">
+      <c r="A165" s="90"/>
+      <c r="B165" s="71" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="166" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="99"/>
-      <c r="B166" s="100" t="s">
+      <c r="A166" s="91"/>
+      <c r="B166" s="72" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="167" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="95" t="s">
+      <c r="A167" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="B167" s="96" t="s">
+      <c r="B167" s="70" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A168" s="97"/>
-      <c r="B168" s="98" t="s">
+      <c r="A168" s="90"/>
+      <c r="B168" s="71" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A169" s="97"/>
-      <c r="B169" s="98" t="s">
+      <c r="A169" s="90"/>
+      <c r="B169" s="71" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A170" s="97"/>
-      <c r="B170" s="98" t="s">
+      <c r="A170" s="90"/>
+      <c r="B170" s="71" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A171" s="97"/>
-      <c r="B171" s="98" t="s">
+      <c r="A171" s="90"/>
+      <c r="B171" s="71" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A172" s="97"/>
-      <c r="B172" s="98" t="s">
+      <c r="A172" s="90"/>
+      <c r="B172" s="71" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A173" s="97"/>
-      <c r="B173" s="98" t="s">
+      <c r="A173" s="90"/>
+      <c r="B173" s="71" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A174" s="97"/>
-      <c r="B174" s="98" t="s">
+      <c r="A174" s="90"/>
+      <c r="B174" s="71" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A175" s="97"/>
-      <c r="B175" s="98" t="s">
+      <c r="A175" s="90"/>
+      <c r="B175" s="71" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A176" s="97"/>
-      <c r="B176" s="98" t="s">
+      <c r="A176" s="90"/>
+      <c r="B176" s="71" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A177" s="97"/>
-      <c r="B177" s="98" t="s">
+      <c r="A177" s="90"/>
+      <c r="B177" s="71" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A178" s="97"/>
-      <c r="B178" s="98" t="s">
+      <c r="A178" s="90"/>
+      <c r="B178" s="71" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A179" s="97"/>
-      <c r="B179" s="98" t="s">
+      <c r="A179" s="90"/>
+      <c r="B179" s="71" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A180" s="97"/>
-      <c r="B180" s="98" t="s">
+      <c r="A180" s="90"/>
+      <c r="B180" s="71" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A181" s="97"/>
-      <c r="B181" s="98" t="s">
+      <c r="A181" s="90"/>
+      <c r="B181" s="71" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="182" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="99"/>
-      <c r="B182" s="100" t="s">
+      <c r="A182" s="91"/>
+      <c r="B182" s="72" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="183" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="95" t="s">
+      <c r="A183" s="89" t="s">
         <v>95</v>
       </c>
-      <c r="B183" s="96" t="s">
+      <c r="B183" s="70" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A184" s="97"/>
-      <c r="B184" s="98" t="s">
+      <c r="A184" s="90"/>
+      <c r="B184" s="71" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="185" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A185" s="99"/>
-      <c r="B185" s="100" t="s">
+      <c r="A185" s="91"/>
+      <c r="B185" s="72" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="186" spans="1:3" s="13" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A186" s="87" t="s">
+      <c r="A186" s="109" t="s">
         <v>20</v>
       </c>
-      <c r="B186" s="88" t="s">
+      <c r="B186" s="65" t="s">
         <v>339</v>
       </c>
       <c r="C186" s="13" t="s">
@@ -3895,8 +3911,8 @@
       </c>
     </row>
     <row r="187" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A187" s="89"/>
-      <c r="B187" s="90" t="s">
+      <c r="A187" s="110"/>
+      <c r="B187" s="66" t="s">
         <v>340</v>
       </c>
       <c r="C187" s="8" t="s">
@@ -3904,510 +3920,510 @@
       </c>
     </row>
     <row r="188" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A188" s="89"/>
-      <c r="B188" s="90" t="s">
+      <c r="A188" s="110"/>
+      <c r="B188" s="66" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="189" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="89"/>
-      <c r="B189" s="90" t="s">
+      <c r="A189" s="110"/>
+      <c r="B189" s="66" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="190" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A190" s="91"/>
-      <c r="B190" s="92" t="s">
+      <c r="A190" s="111"/>
+      <c r="B190" s="67" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="191" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A191" s="95" t="s">
+      <c r="A191" s="89" t="s">
         <v>96</v>
       </c>
-      <c r="B191" s="96" t="s">
+      <c r="B191" s="70" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A192" s="97"/>
-      <c r="B192" s="98" t="s">
+      <c r="A192" s="90"/>
+      <c r="B192" s="71" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A193" s="97"/>
-      <c r="B193" s="98" t="s">
+      <c r="A193" s="90"/>
+      <c r="B193" s="71" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A194" s="97"/>
-      <c r="B194" s="98" t="s">
+      <c r="A194" s="90"/>
+      <c r="B194" s="71" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="195" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A195" s="99"/>
-      <c r="B195" s="100" t="s">
+      <c r="A195" s="91"/>
+      <c r="B195" s="72" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="196" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A196" s="95" t="s">
+      <c r="A196" s="89" t="s">
         <v>393</v>
       </c>
-      <c r="B196" s="103" t="s">
+      <c r="B196" s="75" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A197" s="97"/>
-      <c r="B197" s="104" t="s">
+      <c r="A197" s="90"/>
+      <c r="B197" s="76" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A198" s="97"/>
-      <c r="B198" s="104" t="s">
+      <c r="A198" s="90"/>
+      <c r="B198" s="76" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A199" s="97"/>
-      <c r="B199" s="104" t="s">
+      <c r="A199" s="90"/>
+      <c r="B199" s="76" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A200" s="97"/>
-      <c r="B200" s="104" t="s">
+      <c r="A200" s="90"/>
+      <c r="B200" s="76" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A201" s="97"/>
-      <c r="B201" s="104" t="s">
+      <c r="A201" s="90"/>
+      <c r="B201" s="76" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A202" s="97"/>
-      <c r="B202" s="104" t="s">
+      <c r="A202" s="90"/>
+      <c r="B202" s="76" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A203" s="97"/>
-      <c r="B203" s="104" t="s">
+      <c r="A203" s="90"/>
+      <c r="B203" s="76" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A204" s="97"/>
-      <c r="B204" s="104" t="s">
+      <c r="A204" s="90"/>
+      <c r="B204" s="76" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A205" s="97"/>
-      <c r="B205" s="104" t="s">
+      <c r="A205" s="90"/>
+      <c r="B205" s="76" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="206" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A206" s="99"/>
-      <c r="B206" s="100" t="s">
+      <c r="A206" s="91"/>
+      <c r="B206" s="72" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="207" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A207" s="95" t="s">
+      <c r="A207" s="89" t="s">
         <v>101</v>
       </c>
-      <c r="B207" s="96" t="s">
+      <c r="B207" s="70" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A208" s="97"/>
-      <c r="B208" s="98" t="s">
+      <c r="A208" s="90"/>
+      <c r="B208" s="71" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A209" s="97"/>
-      <c r="B209" s="98" t="s">
+      <c r="A209" s="90"/>
+      <c r="B209" s="71" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A210" s="97"/>
-      <c r="B210" s="98" t="s">
+      <c r="A210" s="90"/>
+      <c r="B210" s="71" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A211" s="97"/>
-      <c r="B211" s="98" t="s">
+      <c r="A211" s="90"/>
+      <c r="B211" s="71" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A212" s="97"/>
-      <c r="B212" s="98" t="s">
+      <c r="A212" s="90"/>
+      <c r="B212" s="71" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A213" s="97"/>
-      <c r="B213" s="98" t="s">
+      <c r="A213" s="90"/>
+      <c r="B213" s="71" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A214" s="97"/>
-      <c r="B214" s="98" t="s">
+      <c r="A214" s="90"/>
+      <c r="B214" s="71" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A215" s="97"/>
-      <c r="B215" s="98" t="s">
+      <c r="A215" s="90"/>
+      <c r="B215" s="71" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A216" s="97"/>
-      <c r="B216" s="98" t="s">
+      <c r="A216" s="90"/>
+      <c r="B216" s="71" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="217" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A217" s="99"/>
-      <c r="B217" s="100" t="s">
+      <c r="A217" s="91"/>
+      <c r="B217" s="72" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="218" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A218" s="105" t="s">
+      <c r="A218" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="B218" s="106" t="s">
+      <c r="B218" s="77" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A219" s="107"/>
-      <c r="B219" s="108" t="s">
+      <c r="A219" s="99"/>
+      <c r="B219" s="78" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="220" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A220" s="109"/>
-      <c r="B220" s="110" t="s">
+      <c r="A220" s="100"/>
+      <c r="B220" s="79" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="221" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A221" s="95" t="s">
+      <c r="A221" s="89" t="s">
         <v>380</v>
       </c>
-      <c r="B221" s="96" t="s">
+      <c r="B221" s="70" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A222" s="97"/>
-      <c r="B222" s="98" t="s">
+      <c r="A222" s="90"/>
+      <c r="B222" s="71" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A223" s="97"/>
-      <c r="B223" s="98" t="s">
+      <c r="A223" s="90"/>
+      <c r="B223" s="71" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A224" s="97"/>
-      <c r="B224" s="98" t="s">
+      <c r="A224" s="90"/>
+      <c r="B224" s="71" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A225" s="97"/>
-      <c r="B225" s="98" t="s">
+      <c r="A225" s="90"/>
+      <c r="B225" s="71" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A226" s="97"/>
-      <c r="B226" s="98" t="s">
+      <c r="A226" s="90"/>
+      <c r="B226" s="71" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A227" s="97"/>
-      <c r="B227" s="98" t="s">
+      <c r="A227" s="90"/>
+      <c r="B227" s="71" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="228" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A228" s="99"/>
-      <c r="B228" s="100" t="s">
+      <c r="A228" s="91"/>
+      <c r="B228" s="72" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="229" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A229" s="95" t="s">
+      <c r="A229" s="89" t="s">
         <v>27</v>
       </c>
-      <c r="B229" s="96" t="s">
+      <c r="B229" s="70" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A230" s="97"/>
-      <c r="B230" s="98" t="s">
+      <c r="A230" s="90"/>
+      <c r="B230" s="71" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A231" s="97"/>
-      <c r="B231" s="98" t="s">
+      <c r="A231" s="90"/>
+      <c r="B231" s="71" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A232" s="97"/>
-      <c r="B232" s="98" t="s">
+      <c r="A232" s="90"/>
+      <c r="B232" s="71" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A233" s="97"/>
-      <c r="B233" s="98" t="s">
+      <c r="A233" s="90"/>
+      <c r="B233" s="71" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="234" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A234" s="99"/>
-      <c r="B234" s="100" t="s">
+      <c r="A234" s="91"/>
+      <c r="B234" s="72" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="235" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A235" s="111" t="s">
+      <c r="A235" s="117" t="s">
         <v>261</v>
       </c>
-      <c r="B235" s="106" t="s">
+      <c r="B235" s="77" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A236" s="112"/>
-      <c r="B236" s="108" t="s">
+      <c r="A236" s="118"/>
+      <c r="B236" s="78" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A237" s="112"/>
-      <c r="B237" s="108" t="s">
+      <c r="A237" s="118"/>
+      <c r="B237" s="78" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A238" s="112"/>
-      <c r="B238" s="108" t="s">
+      <c r="A238" s="118"/>
+      <c r="B238" s="78" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A239" s="112"/>
-      <c r="B239" s="108" t="s">
+      <c r="A239" s="118"/>
+      <c r="B239" s="78" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A240" s="112"/>
-      <c r="B240" s="108" t="s">
+      <c r="A240" s="118"/>
+      <c r="B240" s="78" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A241" s="112"/>
-      <c r="B241" s="108" t="s">
+      <c r="A241" s="118"/>
+      <c r="B241" s="78" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="242" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A242" s="113"/>
-      <c r="B242" s="110" t="s">
+      <c r="A242" s="119"/>
+      <c r="B242" s="79" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="243" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A243" s="95" t="s">
+      <c r="A243" s="89" t="s">
         <v>309</v>
       </c>
-      <c r="B243" s="96" t="s">
+      <c r="B243" s="70" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A244" s="97"/>
-      <c r="B244" s="98" t="s">
+      <c r="A244" s="90"/>
+      <c r="B244" s="71" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A245" s="97"/>
-      <c r="B245" s="98" t="s">
+      <c r="A245" s="90"/>
+      <c r="B245" s="71" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A246" s="97"/>
-      <c r="B246" s="98" t="s">
+      <c r="A246" s="90"/>
+      <c r="B246" s="71" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A247" s="97"/>
-      <c r="B247" s="98" t="s">
+      <c r="A247" s="90"/>
+      <c r="B247" s="71" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A248" s="97"/>
-      <c r="B248" s="98" t="s">
+      <c r="A248" s="90"/>
+      <c r="B248" s="71" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="249" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A249" s="99"/>
-      <c r="B249" s="100" t="s">
+      <c r="A249" s="91"/>
+      <c r="B249" s="72" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="250" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A250" s="95" t="s">
+      <c r="A250" s="89" t="s">
         <v>314</v>
       </c>
-      <c r="B250" s="96" t="s">
+      <c r="B250" s="70" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A251" s="97"/>
-      <c r="B251" s="98" t="s">
+      <c r="A251" s="90"/>
+      <c r="B251" s="71" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A252" s="97"/>
-      <c r="B252" s="98" t="s">
+      <c r="A252" s="90"/>
+      <c r="B252" s="71" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A253" s="97"/>
-      <c r="B253" s="98" t="s">
+      <c r="A253" s="90"/>
+      <c r="B253" s="71" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A254" s="97"/>
-      <c r="B254" s="98" t="s">
+      <c r="A254" s="90"/>
+      <c r="B254" s="71" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A255" s="97"/>
-      <c r="B255" s="98" t="s">
+      <c r="A255" s="90"/>
+      <c r="B255" s="71" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="256" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A256" s="99"/>
-      <c r="B256" s="100" t="s">
+      <c r="A256" s="91"/>
+      <c r="B256" s="72" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="257" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A257" s="95" t="s">
+      <c r="A257" s="89" t="s">
         <v>315</v>
       </c>
-      <c r="B257" s="96" t="s">
+      <c r="B257" s="70" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="258" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A258" s="97"/>
-      <c r="B258" s="98" t="s">
+      <c r="A258" s="90"/>
+      <c r="B258" s="71" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="259" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A259" s="97"/>
-      <c r="B259" s="98" t="s">
+      <c r="A259" s="90"/>
+      <c r="B259" s="71" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="260" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A260" s="97"/>
-      <c r="B260" s="98" t="s">
+      <c r="A260" s="90"/>
+      <c r="B260" s="71" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="261" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A261" s="97"/>
-      <c r="B261" s="98" t="s">
+      <c r="A261" s="90"/>
+      <c r="B261" s="71" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="262" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A262" s="97"/>
-      <c r="B262" s="98" t="s">
+      <c r="A262" s="90"/>
+      <c r="B262" s="71" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="263" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A263" s="99"/>
-      <c r="B263" s="100" t="s">
+      <c r="A263" s="91"/>
+      <c r="B263" s="72" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="264" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A264" s="95" t="s">
+      <c r="A264" s="89" t="s">
         <v>100</v>
       </c>
-      <c r="B264" s="96" t="s">
+      <c r="B264" s="70" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="265" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A265" s="97"/>
-      <c r="B265" s="98" t="s">
+      <c r="A265" s="90"/>
+      <c r="B265" s="71" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="266" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A266" s="97"/>
-      <c r="B266" s="98" t="s">
+      <c r="A266" s="90"/>
+      <c r="B266" s="71" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A267" s="97"/>
-      <c r="B267" s="98" t="s">
+      <c r="A267" s="90"/>
+      <c r="B267" s="71" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="268" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A268" s="99"/>
-      <c r="B268" s="100" t="s">
+      <c r="A268" s="91"/>
+      <c r="B268" s="72" t="s">
         <v>80</v>
       </c>
       <c r="C268" s="25"/>
@@ -4419,28 +4435,28 @@
       <c r="K268" s="25"/>
     </row>
     <row r="269" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A269" s="95" t="s">
+      <c r="A269" s="89" t="s">
         <v>334</v>
       </c>
-      <c r="B269" s="96" t="s">
+      <c r="B269" s="70" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="270" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A270" s="97"/>
-      <c r="B270" s="98" t="s">
+      <c r="A270" s="90"/>
+      <c r="B270" s="71" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="271" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A271" s="97"/>
-      <c r="B271" s="98" t="s">
+      <c r="A271" s="90"/>
+      <c r="B271" s="71" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="272" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A272" s="99"/>
-      <c r="B272" s="100" t="s">
+      <c r="A272" s="91"/>
+      <c r="B272" s="72" t="s">
         <v>338</v>
       </c>
       <c r="C272" s="29"/>
@@ -4454,30 +4470,30 @@
       <c r="K272" s="29"/>
     </row>
     <row r="273" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A273" s="114" t="s">
+      <c r="A273" s="80" t="s">
         <v>241</v>
       </c>
-      <c r="B273" s="115" t="s">
+      <c r="B273" s="81" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="274" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A274" s="95" t="s">
+      <c r="A274" s="89" t="s">
         <v>136</v>
       </c>
-      <c r="B274" s="96" t="s">
+      <c r="B274" s="70" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="275" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A275" s="97"/>
-      <c r="B275" s="98" t="s">
+      <c r="A275" s="90"/>
+      <c r="B275" s="71" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="276" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A276" s="97"/>
-      <c r="B276" s="98" t="s">
+      <c r="A276" s="90"/>
+      <c r="B276" s="71" t="s">
         <v>448</v>
       </c>
       <c r="C276" s="31"/>
@@ -4491,56 +4507,56 @@
       <c r="K276" s="31"/>
     </row>
     <row r="277" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A277" s="97"/>
-      <c r="B277" s="98" t="s">
+      <c r="A277" s="90"/>
+      <c r="B277" s="71" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="278" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A278" s="97"/>
-      <c r="B278" s="98" t="s">
+      <c r="A278" s="90"/>
+      <c r="B278" s="71" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="279" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A279" s="97"/>
-      <c r="B279" s="98" t="s">
+      <c r="A279" s="90"/>
+      <c r="B279" s="71" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="280" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A280" s="97"/>
-      <c r="B280" s="98" t="s">
+      <c r="A280" s="90"/>
+      <c r="B280" s="71" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="281" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A281" s="97"/>
-      <c r="B281" s="98" t="s">
+      <c r="A281" s="90"/>
+      <c r="B281" s="71" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="282" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A282" s="97"/>
-      <c r="B282" s="98" t="s">
+      <c r="A282" s="90"/>
+      <c r="B282" s="71" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="283" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A283" s="97"/>
-      <c r="B283" s="98" t="s">
+      <c r="A283" s="90"/>
+      <c r="B283" s="71" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="284" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A284" s="97"/>
-      <c r="B284" s="98" t="s">
+      <c r="A284" s="90"/>
+      <c r="B284" s="71" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="285" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A285" s="99"/>
-      <c r="B285" s="100" t="s">
+      <c r="A285" s="91"/>
+      <c r="B285" s="72" t="s">
         <v>456</v>
       </c>
       <c r="C285" s="32"/>
@@ -4553,1359 +4569,1359 @@
       <c r="J285" s="32"/>
       <c r="K285" s="32"/>
     </row>
-    <row r="286" spans="1:11" s="75" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A286" s="82" t="s">
+    <row r="286" spans="1:11" s="59" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A286" s="92" t="s">
         <v>345</v>
       </c>
-      <c r="B286" s="83" t="s">
+      <c r="B286" s="63" t="s">
         <v>346</v>
       </c>
-      <c r="C286" s="75" t="s">
+      <c r="C286" s="59" t="s">
         <v>515</v>
       </c>
-      <c r="D286" s="75" t="s">
+      <c r="D286" s="59" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="287" spans="1:11" s="76" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A287" s="84"/>
-      <c r="B287" s="64" t="s">
+    <row r="287" spans="1:11" s="60" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A287" s="93"/>
+      <c r="B287" s="51" t="s">
         <v>347</v>
       </c>
-      <c r="C287" s="76" t="s">
+      <c r="C287" s="60" t="s">
         <v>529</v>
       </c>
-      <c r="D287" s="76" t="s">
+      <c r="D287" s="60" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="288" spans="1:11" s="76" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A288" s="84"/>
-      <c r="B288" s="64" t="s">
+    <row r="288" spans="1:11" s="60" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A288" s="93"/>
+      <c r="B288" s="51" t="s">
         <v>348</v>
       </c>
-      <c r="C288" s="76" t="s">
+      <c r="C288" s="60" t="s">
         <v>489</v>
       </c>
-      <c r="D288" s="76" t="s">
+      <c r="D288" s="60" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="289" spans="1:4" s="76" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A289" s="84"/>
-      <c r="B289" s="64" t="s">
+    <row r="289" spans="1:4" s="60" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A289" s="93"/>
+      <c r="B289" s="51" t="s">
         <v>349</v>
       </c>
-      <c r="C289" s="76" t="s">
+      <c r="C289" s="60" t="s">
         <v>519</v>
       </c>
-      <c r="D289" s="76" t="s">
+      <c r="D289" s="60" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="290" spans="1:4" s="76" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A290" s="84"/>
-      <c r="B290" s="64" t="s">
+    <row r="290" spans="1:4" s="60" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A290" s="93"/>
+      <c r="B290" s="51" t="s">
         <v>350</v>
       </c>
-      <c r="C290" s="76" t="s">
+      <c r="C290" s="60" t="s">
         <v>529</v>
       </c>
-      <c r="D290" s="76" t="s">
+      <c r="D290" s="60" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="291" spans="1:4" s="76" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A291" s="84"/>
-      <c r="B291" s="64" t="s">
+    <row r="291" spans="1:4" s="60" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A291" s="93"/>
+      <c r="B291" s="51" t="s">
         <v>351</v>
       </c>
-      <c r="C291" s="76" t="s">
+      <c r="C291" s="60" t="s">
         <v>489</v>
       </c>
-      <c r="D291" s="76" t="s">
+      <c r="D291" s="60" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="292" spans="1:4" s="76" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A292" s="84"/>
-      <c r="B292" s="64" t="s">
+    <row r="292" spans="1:4" s="60" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A292" s="93"/>
+      <c r="B292" s="51" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="293" spans="1:4" s="76" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A293" s="84"/>
-      <c r="B293" s="64" t="s">
+    <row r="293" spans="1:4" s="60" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A293" s="93"/>
+      <c r="B293" s="51" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="294" spans="1:4" s="76" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A294" s="84"/>
-      <c r="B294" s="64" t="s">
+    <row r="294" spans="1:4" s="60" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A294" s="93"/>
+      <c r="B294" s="51" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="295" spans="1:4" s="76" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A295" s="84"/>
-      <c r="B295" s="64" t="s">
+    <row r="295" spans="1:4" s="60" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A295" s="93"/>
+      <c r="B295" s="51" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="296" spans="1:4" s="76" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A296" s="84"/>
-      <c r="B296" s="64" t="s">
+    <row r="296" spans="1:4" s="60" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A296" s="93"/>
+      <c r="B296" s="51" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="297" spans="1:4" s="76" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A297" s="84"/>
-      <c r="B297" s="64" t="s">
+    <row r="297" spans="1:4" s="60" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A297" s="93"/>
+      <c r="B297" s="51" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="298" spans="1:4" s="76" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A298" s="84"/>
-      <c r="B298" s="64" t="s">
+    <row r="298" spans="1:4" s="60" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A298" s="93"/>
+      <c r="B298" s="51" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="299" spans="1:4" s="76" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A299" s="84"/>
-      <c r="B299" s="64" t="s">
+    <row r="299" spans="1:4" s="60" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A299" s="93"/>
+      <c r="B299" s="51" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="300" spans="1:4" s="76" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A300" s="84"/>
-      <c r="B300" s="64" t="s">
+    <row r="300" spans="1:4" s="60" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A300" s="93"/>
+      <c r="B300" s="51" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="301" spans="1:4" s="76" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A301" s="84"/>
-      <c r="B301" s="64" t="s">
+    <row r="301" spans="1:4" s="60" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A301" s="93"/>
+      <c r="B301" s="51" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="302" spans="1:4" s="76" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A302" s="84"/>
-      <c r="B302" s="64" t="s">
+    <row r="302" spans="1:4" s="60" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A302" s="93"/>
+      <c r="B302" s="51" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="303" spans="1:4" s="77" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A303" s="85"/>
-      <c r="B303" s="67" t="s">
+    <row r="303" spans="1:4" s="61" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A303" s="94"/>
+      <c r="B303" s="53" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="304" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A304" s="95" t="s">
+      <c r="A304" s="89" t="s">
         <v>458</v>
       </c>
-      <c r="B304" s="96" t="s">
+      <c r="B304" s="70" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="305" spans="1:2" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A305" s="97"/>
-      <c r="B305" s="98" t="s">
+      <c r="A305" s="90"/>
+      <c r="B305" s="71" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="306" spans="1:2" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A306" s="97"/>
-      <c r="B306" s="98" t="s">
+      <c r="A306" s="90"/>
+      <c r="B306" s="71" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="307" spans="1:2" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A307" s="97"/>
-      <c r="B307" s="98" t="s">
+      <c r="A307" s="90"/>
+      <c r="B307" s="71" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A308" s="97"/>
-      <c r="B308" s="98" t="s">
+      <c r="A308" s="90"/>
+      <c r="B308" s="71" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="309" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A309" s="99"/>
-      <c r="B309" s="100" t="s">
+      <c r="A309" s="91"/>
+      <c r="B309" s="72" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="310" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A310" s="95" t="s">
+      <c r="A310" s="89" t="s">
         <v>459</v>
       </c>
-      <c r="B310" s="96" t="s">
+      <c r="B310" s="70" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A311" s="97"/>
-      <c r="B311" s="98" t="s">
+      <c r="A311" s="90"/>
+      <c r="B311" s="71" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A312" s="97"/>
-      <c r="B312" s="98" t="s">
+      <c r="A312" s="90"/>
+      <c r="B312" s="71" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A313" s="97"/>
-      <c r="B313" s="98" t="s">
+      <c r="A313" s="90"/>
+      <c r="B313" s="71" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A314" s="97"/>
-      <c r="B314" s="98" t="s">
+      <c r="A314" s="90"/>
+      <c r="B314" s="71" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="315" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A315" s="99"/>
-      <c r="B315" s="100" t="s">
+      <c r="A315" s="91"/>
+      <c r="B315" s="72" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="316" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A316" s="95" t="s">
+      <c r="A316" s="89" t="s">
         <v>460</v>
       </c>
-      <c r="B316" s="96" t="s">
+      <c r="B316" s="70" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A317" s="97"/>
-      <c r="B317" s="98" t="s">
+      <c r="A317" s="90"/>
+      <c r="B317" s="71" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A318" s="97"/>
-      <c r="B318" s="98" t="s">
+      <c r="A318" s="90"/>
+      <c r="B318" s="71" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A319" s="97"/>
-      <c r="B319" s="98" t="s">
+      <c r="A319" s="90"/>
+      <c r="B319" s="71" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A320" s="97"/>
-      <c r="B320" s="98" t="s">
+      <c r="A320" s="90"/>
+      <c r="B320" s="71" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="321" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A321" s="99"/>
-      <c r="B321" s="100" t="s">
+      <c r="A321" s="91"/>
+      <c r="B321" s="72" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="322" spans="1:2" s="73" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A322" s="105" t="s">
+    <row r="322" spans="1:2" s="57" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A322" s="98" t="s">
         <v>243</v>
       </c>
-      <c r="B322" s="116" t="s">
+      <c r="B322" s="82" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="323" spans="1:2" s="74" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A323" s="107"/>
-      <c r="B323" s="117" t="s">
+    <row r="323" spans="1:2" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A323" s="99"/>
+      <c r="B323" s="83" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="324" spans="1:2" s="74" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A324" s="107"/>
-      <c r="B324" s="117" t="s">
+    <row r="324" spans="1:2" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A324" s="99"/>
+      <c r="B324" s="83" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="325" spans="1:2" s="74" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A325" s="107"/>
-      <c r="B325" s="117" t="s">
+    <row r="325" spans="1:2" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A325" s="99"/>
+      <c r="B325" s="83" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="326" spans="1:2" s="74" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A326" s="107"/>
-      <c r="B326" s="117" t="s">
+    <row r="326" spans="1:2" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A326" s="99"/>
+      <c r="B326" s="83" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="327" spans="1:2" s="74" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A327" s="107"/>
-      <c r="B327" s="117" t="s">
+    <row r="327" spans="1:2" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A327" s="99"/>
+      <c r="B327" s="83" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="328" spans="1:2" s="74" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A328" s="107"/>
-      <c r="B328" s="117" t="s">
+    <row r="328" spans="1:2" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A328" s="99"/>
+      <c r="B328" s="83" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="329" spans="1:2" s="74" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A329" s="107"/>
-      <c r="B329" s="117" t="s">
+    <row r="329" spans="1:2" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A329" s="99"/>
+      <c r="B329" s="83" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="330" spans="1:2" s="74" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A330" s="107"/>
-      <c r="B330" s="117" t="s">
+    <row r="330" spans="1:2" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A330" s="99"/>
+      <c r="B330" s="83" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="331" spans="1:2" s="74" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A331" s="107"/>
-      <c r="B331" s="117" t="s">
+    <row r="331" spans="1:2" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A331" s="99"/>
+      <c r="B331" s="83" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A332" s="107"/>
-      <c r="B332" s="108" t="s">
+      <c r="A332" s="99"/>
+      <c r="B332" s="78" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A333" s="107"/>
-      <c r="B333" s="108" t="s">
+      <c r="A333" s="99"/>
+      <c r="B333" s="78" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A334" s="107"/>
-      <c r="B334" s="108" t="s">
+      <c r="A334" s="99"/>
+      <c r="B334" s="78" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="335" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A335" s="109"/>
-      <c r="B335" s="110" t="s">
+      <c r="A335" s="100"/>
+      <c r="B335" s="79" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="336" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A336" s="95" t="s">
+      <c r="A336" s="89" t="s">
         <v>375</v>
       </c>
-      <c r="B336" s="96" t="s">
+      <c r="B336" s="70" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A337" s="97"/>
-      <c r="B337" s="98" t="s">
+      <c r="A337" s="90"/>
+      <c r="B337" s="71" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A338" s="97"/>
-      <c r="B338" s="98" t="s">
+      <c r="A338" s="90"/>
+      <c r="B338" s="71" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A339" s="97"/>
-      <c r="B339" s="98" t="s">
+      <c r="A339" s="90"/>
+      <c r="B339" s="71" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="340" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A340" s="99"/>
-      <c r="B340" s="100" t="s">
+      <c r="A340" s="91"/>
+      <c r="B340" s="72" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="341" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A341" s="95" t="s">
+      <c r="A341" s="89" t="s">
         <v>215</v>
       </c>
-      <c r="B341" s="96" t="s">
+      <c r="B341" s="70" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A342" s="97"/>
-      <c r="B342" s="98" t="s">
+      <c r="A342" s="90"/>
+      <c r="B342" s="71" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A343" s="97"/>
-      <c r="B343" s="98" t="s">
+      <c r="A343" s="90"/>
+      <c r="B343" s="71" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A344" s="97"/>
-      <c r="B344" s="98" t="s">
+      <c r="A344" s="90"/>
+      <c r="B344" s="71" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A345" s="97"/>
-      <c r="B345" s="98" t="s">
+      <c r="A345" s="90"/>
+      <c r="B345" s="71" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A346" s="97"/>
-      <c r="B346" s="98" t="s">
+      <c r="A346" s="90"/>
+      <c r="B346" s="71" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A347" s="97"/>
-      <c r="B347" s="98" t="s">
+      <c r="A347" s="90"/>
+      <c r="B347" s="71" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A348" s="97"/>
-      <c r="B348" s="98" t="s">
+      <c r="A348" s="90"/>
+      <c r="B348" s="71" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A349" s="97"/>
-      <c r="B349" s="98" t="s">
+      <c r="A349" s="90"/>
+      <c r="B349" s="71" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A350" s="97"/>
-      <c r="B350" s="98" t="s">
+      <c r="A350" s="90"/>
+      <c r="B350" s="71" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A351" s="97"/>
-      <c r="B351" s="98" t="s">
+      <c r="A351" s="90"/>
+      <c r="B351" s="71" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A352" s="97"/>
-      <c r="B352" s="98" t="s">
+      <c r="A352" s="90"/>
+      <c r="B352" s="71" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A353" s="97"/>
-      <c r="B353" s="98" t="s">
+      <c r="A353" s="90"/>
+      <c r="B353" s="71" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A354" s="97"/>
-      <c r="B354" s="98" t="s">
+      <c r="A354" s="90"/>
+      <c r="B354" s="71" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A355" s="97"/>
-      <c r="B355" s="98" t="s">
+      <c r="A355" s="90"/>
+      <c r="B355" s="71" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A356" s="97"/>
-      <c r="B356" s="98" t="s">
+      <c r="A356" s="90"/>
+      <c r="B356" s="71" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A357" s="97"/>
-      <c r="B357" s="98" t="s">
+      <c r="A357" s="90"/>
+      <c r="B357" s="71" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A358" s="97"/>
-      <c r="B358" s="98" t="s">
+      <c r="A358" s="90"/>
+      <c r="B358" s="71" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A359" s="97"/>
-      <c r="B359" s="98" t="s">
+      <c r="A359" s="90"/>
+      <c r="B359" s="71" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A360" s="97"/>
-      <c r="B360" s="98" t="s">
+      <c r="A360" s="90"/>
+      <c r="B360" s="71" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A361" s="97"/>
-      <c r="B361" s="98" t="s">
+      <c r="A361" s="90"/>
+      <c r="B361" s="71" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A362" s="97"/>
-      <c r="B362" s="98" t="s">
+      <c r="A362" s="90"/>
+      <c r="B362" s="71" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A363" s="97"/>
-      <c r="B363" s="98" t="s">
+      <c r="A363" s="90"/>
+      <c r="B363" s="71" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A364" s="97"/>
-      <c r="B364" s="98" t="s">
+      <c r="A364" s="90"/>
+      <c r="B364" s="71" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="365" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A365" s="99"/>
-      <c r="B365" s="100" t="s">
+      <c r="A365" s="91"/>
+      <c r="B365" s="72" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="366" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A366" s="95" t="s">
+      <c r="A366" s="89" t="s">
         <v>153</v>
       </c>
-      <c r="B366" s="96" t="s">
+      <c r="B366" s="70" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A367" s="97"/>
-      <c r="B367" s="98" t="s">
+      <c r="A367" s="90"/>
+      <c r="B367" s="71" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A368" s="97"/>
-      <c r="B368" s="98" t="s">
+      <c r="A368" s="90"/>
+      <c r="B368" s="71" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A369" s="97"/>
-      <c r="B369" s="98" t="s">
+      <c r="A369" s="90"/>
+      <c r="B369" s="71" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A370" s="97"/>
-      <c r="B370" s="98" t="s">
+      <c r="A370" s="90"/>
+      <c r="B370" s="71" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A371" s="97"/>
-      <c r="B371" s="98" t="s">
+      <c r="A371" s="90"/>
+      <c r="B371" s="71" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A372" s="97"/>
-      <c r="B372" s="98" t="s">
+      <c r="A372" s="90"/>
+      <c r="B372" s="71" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A373" s="97"/>
-      <c r="B373" s="98" t="s">
+      <c r="A373" s="90"/>
+      <c r="B373" s="71" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A374" s="97"/>
-      <c r="B374" s="98" t="s">
+      <c r="A374" s="90"/>
+      <c r="B374" s="71" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A375" s="97"/>
-      <c r="B375" s="98" t="s">
+      <c r="A375" s="90"/>
+      <c r="B375" s="71" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="376" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A376" s="99"/>
-      <c r="B376" s="100" t="s">
+      <c r="A376" s="91"/>
+      <c r="B376" s="72" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="377" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A377" s="95" t="s">
+      <c r="A377" s="89" t="s">
         <v>99</v>
       </c>
-      <c r="B377" s="96" t="s">
+      <c r="B377" s="70" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A378" s="97"/>
-      <c r="B378" s="98" t="s">
+      <c r="A378" s="90"/>
+      <c r="B378" s="71" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A379" s="97"/>
-      <c r="B379" s="98" t="s">
+      <c r="A379" s="90"/>
+      <c r="B379" s="71" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A380" s="97"/>
-      <c r="B380" s="98" t="s">
+      <c r="A380" s="90"/>
+      <c r="B380" s="71" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A381" s="97"/>
-      <c r="B381" s="98" t="s">
+      <c r="A381" s="90"/>
+      <c r="B381" s="71" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A382" s="97"/>
-      <c r="B382" s="98" t="s">
+      <c r="A382" s="90"/>
+      <c r="B382" s="71" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A383" s="97"/>
-      <c r="B383" s="98" t="s">
+      <c r="A383" s="90"/>
+      <c r="B383" s="71" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A384" s="97"/>
-      <c r="B384" s="98" t="s">
+      <c r="A384" s="90"/>
+      <c r="B384" s="71" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A385" s="97"/>
-      <c r="B385" s="98" t="s">
+      <c r="A385" s="90"/>
+      <c r="B385" s="71" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="386" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A386" s="99"/>
-      <c r="B386" s="100" t="s">
+      <c r="A386" s="91"/>
+      <c r="B386" s="72" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="387" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A387" s="95" t="s">
+      <c r="A387" s="89" t="s">
         <v>137</v>
       </c>
-      <c r="B387" s="96" t="s">
+      <c r="B387" s="70" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A388" s="97"/>
-      <c r="B388" s="98" t="s">
+      <c r="A388" s="90"/>
+      <c r="B388" s="71" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A389" s="97"/>
-      <c r="B389" s="98" t="s">
+      <c r="A389" s="90"/>
+      <c r="B389" s="71" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A390" s="97"/>
-      <c r="B390" s="98" t="s">
+      <c r="A390" s="90"/>
+      <c r="B390" s="71" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A391" s="97"/>
-      <c r="B391" s="98" t="s">
+      <c r="A391" s="90"/>
+      <c r="B391" s="71" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A392" s="97"/>
-      <c r="B392" s="98" t="s">
+      <c r="A392" s="90"/>
+      <c r="B392" s="71" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A393" s="97"/>
-      <c r="B393" s="98" t="s">
+      <c r="A393" s="90"/>
+      <c r="B393" s="71" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A394" s="97"/>
-      <c r="B394" s="98" t="s">
+      <c r="A394" s="90"/>
+      <c r="B394" s="71" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A395" s="97"/>
-      <c r="B395" s="98" t="s">
+      <c r="A395" s="90"/>
+      <c r="B395" s="71" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A396" s="97"/>
-      <c r="B396" s="98" t="s">
+      <c r="A396" s="90"/>
+      <c r="B396" s="71" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A397" s="97"/>
-      <c r="B397" s="98" t="s">
+      <c r="A397" s="90"/>
+      <c r="B397" s="71" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A398" s="97"/>
-      <c r="B398" s="98" t="s">
+      <c r="A398" s="90"/>
+      <c r="B398" s="71" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A399" s="97"/>
-      <c r="B399" s="98" t="s">
+      <c r="A399" s="90"/>
+      <c r="B399" s="71" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A400" s="97"/>
-      <c r="B400" s="98" t="s">
+      <c r="A400" s="90"/>
+      <c r="B400" s="71" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="401" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A401" s="99"/>
-      <c r="B401" s="100" t="s">
+      <c r="A401" s="91"/>
+      <c r="B401" s="72" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="402" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A402" s="95" t="s">
+      <c r="A402" s="89" t="s">
         <v>427</v>
       </c>
-      <c r="B402" s="96" t="s">
+      <c r="B402" s="70" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A403" s="97"/>
-      <c r="B403" s="98" t="s">
+      <c r="A403" s="90"/>
+      <c r="B403" s="71" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A404" s="97"/>
-      <c r="B404" s="118" t="s">
+      <c r="A404" s="90"/>
+      <c r="B404" s="84" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A405" s="97"/>
-      <c r="B405" s="98" t="s">
+      <c r="A405" s="90"/>
+      <c r="B405" s="71" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A406" s="97"/>
-      <c r="B406" s="98" t="s">
+      <c r="A406" s="90"/>
+      <c r="B406" s="71" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A407" s="97"/>
-      <c r="B407" s="98" t="s">
+      <c r="A407" s="90"/>
+      <c r="B407" s="71" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A408" s="97"/>
-      <c r="B408" s="98" t="s">
+      <c r="A408" s="90"/>
+      <c r="B408" s="71" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A409" s="97"/>
-      <c r="B409" s="98" t="s">
+      <c r="A409" s="90"/>
+      <c r="B409" s="71" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A410" s="97"/>
-      <c r="B410" s="98" t="s">
+      <c r="A410" s="90"/>
+      <c r="B410" s="71" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A411" s="97"/>
-      <c r="B411" s="98" t="s">
+      <c r="A411" s="90"/>
+      <c r="B411" s="71" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A412" s="97"/>
-      <c r="B412" s="98" t="s">
+      <c r="A412" s="90"/>
+      <c r="B412" s="71" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A413" s="97"/>
-      <c r="B413" s="98" t="s">
+      <c r="A413" s="90"/>
+      <c r="B413" s="71" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A414" s="97"/>
-      <c r="B414" s="98" t="s">
+      <c r="A414" s="90"/>
+      <c r="B414" s="71" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A415" s="97"/>
-      <c r="B415" s="98" t="s">
+      <c r="A415" s="90"/>
+      <c r="B415" s="71" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A416" s="97"/>
-      <c r="B416" s="98" t="str">
+      <c r="A416" s="90"/>
+      <c r="B416" s="71" t="str">
         <f>B415 &amp; " Verification"</f>
         <v>Mortgage Pro Verification</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A417" s="97"/>
-      <c r="B417" s="98" t="s">
+      <c r="A417" s="90"/>
+      <c r="B417" s="71" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A418" s="97"/>
-      <c r="B418" s="98" t="str">
+      <c r="A418" s="90"/>
+      <c r="B418" s="71" t="str">
         <f>B417 &amp; " Verification"</f>
         <v>Insurance Retro Verification</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A419" s="97"/>
-      <c r="B419" s="98" t="s">
+      <c r="A419" s="90"/>
+      <c r="B419" s="71" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A420" s="97"/>
-      <c r="B420" s="98" t="str">
+      <c r="A420" s="90"/>
+      <c r="B420" s="71" t="str">
         <f>B419 &amp; " Verification"</f>
         <v>Insurance Pro Verification</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A421" s="97"/>
-      <c r="B421" s="98" t="s">
+      <c r="A421" s="90"/>
+      <c r="B421" s="71" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A422" s="97"/>
-      <c r="B422" s="98" t="str">
+      <c r="A422" s="90"/>
+      <c r="B422" s="71" t="str">
         <f>B421 &amp; " Verification"</f>
         <v>Taxes Retro Verification</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A423" s="97"/>
-      <c r="B423" s="98" t="s">
+      <c r="A423" s="90"/>
+      <c r="B423" s="71" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A424" s="97"/>
-      <c r="B424" s="98" t="str">
+      <c r="A424" s="90"/>
+      <c r="B424" s="71" t="str">
         <f>B423 &amp; " Verification"</f>
         <v>Taxes Pro Verification</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A425" s="97"/>
-      <c r="B425" s="98" t="s">
+      <c r="A425" s="90"/>
+      <c r="B425" s="71" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A426" s="97"/>
-      <c r="B426" s="98" t="str">
+      <c r="A426" s="90"/>
+      <c r="B426" s="71" t="str">
         <f>B425 &amp; " Verification"</f>
         <v>Room / Board Retro Verification</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A427" s="97"/>
-      <c r="B427" s="98" t="s">
+      <c r="A427" s="90"/>
+      <c r="B427" s="71" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A428" s="97"/>
-      <c r="B428" s="98" t="str">
+      <c r="A428" s="90"/>
+      <c r="B428" s="71" t="str">
         <f>B427 &amp; " Verification"</f>
         <v>Room / Board Pro Verification</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A429" s="97"/>
-      <c r="B429" s="98" t="s">
+      <c r="A429" s="90"/>
+      <c r="B429" s="71" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A430" s="97"/>
-      <c r="B430" s="98" t="str">
+      <c r="A430" s="90"/>
+      <c r="B430" s="71" t="str">
         <f>B429 &amp; " Verification"</f>
         <v>Garage Retro Verification</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A431" s="97"/>
-      <c r="B431" s="98" t="s">
+      <c r="A431" s="90"/>
+      <c r="B431" s="71" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A432" s="97"/>
-      <c r="B432" s="98" t="str">
+      <c r="A432" s="90"/>
+      <c r="B432" s="71" t="str">
         <f>B431 &amp; " Verification"</f>
         <v>Garage Pro Verification</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A433" s="97"/>
-      <c r="B433" s="98" t="s">
+      <c r="A433" s="90"/>
+      <c r="B433" s="71" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A434" s="97"/>
-      <c r="B434" s="98" t="str">
+      <c r="A434" s="90"/>
+      <c r="B434" s="71" t="str">
         <f>B433 &amp; " Verification"</f>
         <v>Subsidy Retro Verification</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A435" s="97"/>
-      <c r="B435" s="98" t="s">
+      <c r="A435" s="90"/>
+      <c r="B435" s="71" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="436" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A436" s="99"/>
-      <c r="B436" s="100" t="str">
+      <c r="A436" s="91"/>
+      <c r="B436" s="72" t="str">
         <f>B435 &amp; " Verification"</f>
         <v>Subsidy Pro Verification</v>
       </c>
     </row>
-    <row r="437" spans="1:3" s="86" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A437" s="78" t="s">
+    <row r="437" spans="1:3" s="64" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A437" s="95" t="s">
         <v>389</v>
       </c>
-      <c r="B437" s="79" t="s">
+      <c r="B437" s="62" t="s">
         <v>390</v>
       </c>
-      <c r="C437" s="86" t="s">
+      <c r="C437" s="64" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="438" spans="1:3" s="17" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A438" s="80"/>
-      <c r="B438" s="93" t="s">
+      <c r="A438" s="96"/>
+      <c r="B438" s="68" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="439" spans="1:3" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A439" s="81"/>
-      <c r="B439" s="94" t="s">
+    <row r="439" spans="1:3" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A439" s="97"/>
+      <c r="B439" s="69" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="440" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A440" s="95" t="s">
+      <c r="A440" s="89" t="s">
         <v>92</v>
       </c>
-      <c r="B440" s="96" t="s">
+      <c r="B440" s="70" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A441" s="97"/>
-      <c r="B441" s="98" t="s">
+      <c r="A441" s="90"/>
+      <c r="B441" s="71" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A442" s="97"/>
-      <c r="B442" s="98" t="s">
+      <c r="A442" s="90"/>
+      <c r="B442" s="71" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="443" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A443" s="99"/>
-      <c r="B443" s="100" t="s">
+      <c r="A443" s="91"/>
+      <c r="B443" s="72" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="444" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A444" s="95" t="s">
+      <c r="A444" s="89" t="s">
         <v>98</v>
       </c>
-      <c r="B444" s="96" t="s">
+      <c r="B444" s="70" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A445" s="97"/>
-      <c r="B445" s="98" t="s">
+      <c r="A445" s="90"/>
+      <c r="B445" s="71" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A446" s="97"/>
-      <c r="B446" s="98" t="s">
+      <c r="A446" s="90"/>
+      <c r="B446" s="71" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A447" s="97"/>
-      <c r="B447" s="98" t="s">
+      <c r="A447" s="90"/>
+      <c r="B447" s="71" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A448" s="97"/>
-      <c r="B448" s="98" t="s">
+      <c r="A448" s="90"/>
+      <c r="B448" s="71" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A449" s="97"/>
-      <c r="B449" s="98" t="s">
+      <c r="A449" s="90"/>
+      <c r="B449" s="71" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A450" s="97"/>
-      <c r="B450" s="98" t="s">
+      <c r="A450" s="90"/>
+      <c r="B450" s="71" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A451" s="97"/>
-      <c r="B451" s="98" t="s">
+      <c r="A451" s="90"/>
+      <c r="B451" s="71" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A452" s="97"/>
-      <c r="B452" s="98" t="s">
+      <c r="A452" s="90"/>
+      <c r="B452" s="71" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A453" s="97"/>
-      <c r="B453" s="98" t="s">
+      <c r="A453" s="90"/>
+      <c r="B453" s="71" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A454" s="97"/>
-      <c r="B454" s="98" t="s">
+      <c r="A454" s="90"/>
+      <c r="B454" s="71" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="455" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A455" s="99"/>
-      <c r="B455" s="100" t="s">
+      <c r="A455" s="91"/>
+      <c r="B455" s="72" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="456" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A456" s="95" t="s">
+      <c r="A456" s="89" t="s">
         <v>97</v>
       </c>
-      <c r="B456" s="96" t="s">
+      <c r="B456" s="70" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A457" s="97"/>
-      <c r="B457" s="98" t="s">
+      <c r="A457" s="90"/>
+      <c r="B457" s="71" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A458" s="97"/>
-      <c r="B458" s="98" t="s">
+      <c r="A458" s="90"/>
+      <c r="B458" s="71" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A459" s="97"/>
-      <c r="B459" s="98" t="s">
+      <c r="A459" s="90"/>
+      <c r="B459" s="71" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A460" s="97"/>
-      <c r="B460" s="98" t="s">
+      <c r="A460" s="90"/>
+      <c r="B460" s="71" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A461" s="97"/>
-      <c r="B461" s="98" t="s">
+      <c r="A461" s="90"/>
+      <c r="B461" s="71" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A462" s="97"/>
-      <c r="B462" s="98" t="s">
+      <c r="A462" s="90"/>
+      <c r="B462" s="71" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A463" s="97"/>
-      <c r="B463" s="98" t="s">
+      <c r="A463" s="90"/>
+      <c r="B463" s="71" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A464" s="97"/>
-      <c r="B464" s="98" t="s">
+      <c r="A464" s="90"/>
+      <c r="B464" s="71" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="465" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A465" s="99"/>
-      <c r="B465" s="100" t="s">
+      <c r="A465" s="91"/>
+      <c r="B465" s="72" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="466" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A466" s="105" t="s">
+      <c r="A466" s="98" t="s">
         <v>270</v>
       </c>
-      <c r="B466" s="106" t="s">
+      <c r="B466" s="77" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A467" s="107"/>
-      <c r="B467" s="108" t="s">
+      <c r="A467" s="99"/>
+      <c r="B467" s="78" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A468" s="107"/>
-      <c r="B468" s="108" t="s">
+      <c r="A468" s="99"/>
+      <c r="B468" s="78" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A469" s="107"/>
-      <c r="B469" s="108" t="s">
+      <c r="A469" s="99"/>
+      <c r="B469" s="78" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A470" s="107"/>
-      <c r="B470" s="108" t="s">
+      <c r="A470" s="99"/>
+      <c r="B470" s="78" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A471" s="107"/>
-      <c r="B471" s="108" t="s">
+      <c r="A471" s="99"/>
+      <c r="B471" s="78" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A472" s="107"/>
-      <c r="B472" s="108" t="s">
+      <c r="A472" s="99"/>
+      <c r="B472" s="78" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A473" s="107"/>
-      <c r="B473" s="108" t="s">
+      <c r="A473" s="99"/>
+      <c r="B473" s="78" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A474" s="107"/>
-      <c r="B474" s="108" t="s">
+      <c r="A474" s="99"/>
+      <c r="B474" s="78" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A475" s="107"/>
-      <c r="B475" s="108" t="s">
+      <c r="A475" s="99"/>
+      <c r="B475" s="78" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A476" s="107"/>
-      <c r="B476" s="108" t="s">
+      <c r="A476" s="99"/>
+      <c r="B476" s="78" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="477" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A477" s="109"/>
-      <c r="B477" s="110" t="s">
+      <c r="A477" s="100"/>
+      <c r="B477" s="79" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="478" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A478" s="95" t="s">
+      <c r="A478" s="89" t="s">
         <v>316</v>
       </c>
-      <c r="B478" s="96" t="s">
+      <c r="B478" s="70" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A479" s="97"/>
-      <c r="B479" s="98" t="s">
+      <c r="A479" s="90"/>
+      <c r="B479" s="71" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A480" s="97"/>
-      <c r="B480" s="98" t="s">
+      <c r="A480" s="90"/>
+      <c r="B480" s="71" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A481" s="97"/>
-      <c r="B481" s="98" t="s">
+      <c r="A481" s="90"/>
+      <c r="B481" s="71" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A482" s="97"/>
-      <c r="B482" s="98" t="s">
+      <c r="A482" s="90"/>
+      <c r="B482" s="71" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="483" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A483" s="99"/>
-      <c r="B483" s="100" t="s">
+      <c r="A483" s="91"/>
+      <c r="B483" s="72" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="484" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A484" s="95" t="s">
+      <c r="A484" s="89" t="s">
         <v>319</v>
       </c>
-      <c r="B484" s="96" t="s">
+      <c r="B484" s="70" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A485" s="97"/>
-      <c r="B485" s="98" t="s">
+      <c r="A485" s="90"/>
+      <c r="B485" s="71" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A486" s="97"/>
-      <c r="B486" s="98" t="s">
+      <c r="A486" s="90"/>
+      <c r="B486" s="71" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A487" s="97"/>
-      <c r="B487" s="98" t="s">
+      <c r="A487" s="90"/>
+      <c r="B487" s="71" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A488" s="97"/>
-      <c r="B488" s="98" t="s">
+      <c r="A488" s="90"/>
+      <c r="B488" s="71" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="489" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A489" s="99"/>
-      <c r="B489" s="100" t="s">
+      <c r="A489" s="91"/>
+      <c r="B489" s="72" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="490" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A490" s="95" t="s">
+      <c r="A490" s="89" t="s">
         <v>320</v>
       </c>
-      <c r="B490" s="96" t="s">
+      <c r="B490" s="70" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A491" s="97"/>
-      <c r="B491" s="98" t="s">
+      <c r="A491" s="90"/>
+      <c r="B491" s="71" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A492" s="97"/>
-      <c r="B492" s="98" t="s">
+      <c r="A492" s="90"/>
+      <c r="B492" s="71" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A493" s="97"/>
-      <c r="B493" s="98" t="s">
+      <c r="A493" s="90"/>
+      <c r="B493" s="71" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A494" s="97"/>
-      <c r="B494" s="98" t="s">
+      <c r="A494" s="90"/>
+      <c r="B494" s="71" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="495" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A495" s="99"/>
-      <c r="B495" s="100" t="s">
+      <c r="A495" s="91"/>
+      <c r="B495" s="72" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="496" spans="1:4" s="13" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A496" s="61" t="s">
+      <c r="A496" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="B496" s="62" t="s">
+      <c r="B496" s="50" t="s">
         <v>17</v>
       </c>
       <c r="C496" s="13" t="s">
@@ -5916,8 +5932,8 @@
       </c>
     </row>
     <row r="497" spans="1:4" s="17" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A497" s="63"/>
-      <c r="B497" s="64" t="s">
+      <c r="A497" s="87"/>
+      <c r="B497" s="51" t="s">
         <v>341</v>
       </c>
       <c r="C497" s="17" t="s">
@@ -5928,33 +5944,33 @@
       </c>
     </row>
     <row r="498" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A498" s="63"/>
-      <c r="B498" s="65" t="s">
+      <c r="A498" s="87"/>
+      <c r="B498" s="52" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="499" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A499" s="63"/>
-      <c r="B499" s="65" t="s">
+      <c r="A499" s="87"/>
+      <c r="B499" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="C499" s="68"/>
+      <c r="C499" s="54"/>
     </row>
     <row r="500" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A500" s="63"/>
-      <c r="B500" s="65" t="s">
+      <c r="A500" s="87"/>
+      <c r="B500" s="52" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="501" spans="1:4" s="17" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A501" s="63"/>
-      <c r="B501" s="64" t="s">
+      <c r="A501" s="87"/>
+      <c r="B501" s="51" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="502" spans="1:4" s="17" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A502" s="63"/>
-      <c r="B502" s="64" t="s">
+      <c r="A502" s="87"/>
+      <c r="B502" s="51" t="s">
         <v>19</v>
       </c>
       <c r="C502" s="17" t="s">
@@ -5964,14 +5980,46 @@
         <v>519</v>
       </c>
     </row>
-    <row r="503" spans="1:4" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A503" s="66"/>
-      <c r="B503" s="67" t="s">
+    <row r="503" spans="1:4" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A503" s="88"/>
+      <c r="B503" s="53" t="s">
         <v>344</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="A444:A455"/>
+    <mergeCell ref="A377:A386"/>
+    <mergeCell ref="A264:A268"/>
+    <mergeCell ref="A207:A217"/>
+    <mergeCell ref="A229:A234"/>
+    <mergeCell ref="A167:A182"/>
+    <mergeCell ref="A78:A111"/>
+    <mergeCell ref="A341:A365"/>
+    <mergeCell ref="A322:A335"/>
+    <mergeCell ref="A218:A220"/>
+    <mergeCell ref="A235:A242"/>
+    <mergeCell ref="A183:A185"/>
+    <mergeCell ref="A191:A195"/>
+    <mergeCell ref="A304:A309"/>
+    <mergeCell ref="A310:A315"/>
+    <mergeCell ref="A316:A321"/>
+    <mergeCell ref="A5:A16"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A269:A272"/>
+    <mergeCell ref="A186:A190"/>
+    <mergeCell ref="A155:A166"/>
+    <mergeCell ref="A196:A206"/>
+    <mergeCell ref="A60:A77"/>
+    <mergeCell ref="A221:A228"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A243:A249"/>
+    <mergeCell ref="A21:A35"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="A112:A126"/>
+    <mergeCell ref="A44:A59"/>
+    <mergeCell ref="A128:A154"/>
     <mergeCell ref="A496:A503"/>
     <mergeCell ref="A250:A256"/>
     <mergeCell ref="A257:A263"/>
@@ -5988,38 +6036,6 @@
     <mergeCell ref="A366:A376"/>
     <mergeCell ref="A440:A443"/>
     <mergeCell ref="A456:A465"/>
-    <mergeCell ref="A5:A16"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A269:A272"/>
-    <mergeCell ref="A186:A190"/>
-    <mergeCell ref="A155:A166"/>
-    <mergeCell ref="A196:A206"/>
-    <mergeCell ref="A60:A77"/>
-    <mergeCell ref="A221:A228"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A243:A249"/>
-    <mergeCell ref="A21:A35"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="A112:A126"/>
-    <mergeCell ref="A44:A59"/>
-    <mergeCell ref="A128:A154"/>
-    <mergeCell ref="A167:A182"/>
-    <mergeCell ref="A78:A111"/>
-    <mergeCell ref="A341:A365"/>
-    <mergeCell ref="A322:A335"/>
-    <mergeCell ref="A218:A220"/>
-    <mergeCell ref="A235:A242"/>
-    <mergeCell ref="A183:A185"/>
-    <mergeCell ref="A191:A195"/>
-    <mergeCell ref="A304:A309"/>
-    <mergeCell ref="A310:A315"/>
-    <mergeCell ref="A316:A321"/>
-    <mergeCell ref="A444:A455"/>
-    <mergeCell ref="A377:A386"/>
-    <mergeCell ref="A264:A268"/>
-    <mergeCell ref="A207:A217"/>
-    <mergeCell ref="A229:A234"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:B4 D4:XFD4">
@@ -6079,6 +6095,3541 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V503"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A463" workbookViewId="0">
+      <selection activeCell="C501" sqref="C501"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="6"/>
+    <col min="2" max="2" width="28.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="8"/>
+    <col min="5" max="5" width="12" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="45" t="s">
+        <v>522</v>
+      </c>
+      <c r="M1" s="85" t="s">
+        <v>534</v>
+      </c>
+      <c r="N1" s="85"/>
+      <c r="O1" s="85"/>
+      <c r="P1" s="85"/>
+      <c r="Q1" s="85"/>
+      <c r="R1" s="85"/>
+    </row>
+    <row r="2" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="9">
+        <v>41944</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+    </row>
+    <row r="5" spans="1:18" s="13" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="101" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="102"/>
+      <c r="B6" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="102"/>
+      <c r="B7" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="102"/>
+      <c r="B8" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="102"/>
+      <c r="B9" s="14" t="s">
+        <v>488</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="102"/>
+      <c r="B10" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="D10" s="15"/>
+    </row>
+    <row r="11" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="102"/>
+      <c r="B11" s="14" t="s">
+        <v>490</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>491</v>
+      </c>
+      <c r="D11" s="15"/>
+    </row>
+    <row r="12" spans="1:18" s="17" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="102"/>
+      <c r="B12" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" s="17" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="102"/>
+      <c r="B13" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="C13" s="17">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="102"/>
+      <c r="B14" s="14" t="s">
+        <v>288</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>477</v>
+      </c>
+      <c r="D14" s="15"/>
+    </row>
+    <row r="15" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="102"/>
+      <c r="B15" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>477</v>
+      </c>
+      <c r="D15" s="15"/>
+    </row>
+    <row r="16" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="103"/>
+      <c r="B16" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" s="13" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="101" t="s">
+        <v>291</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" s="17" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="102"/>
+      <c r="B18" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" s="17" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="102"/>
+      <c r="B19" s="16" t="s">
+        <v>478</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="103"/>
+      <c r="B20" s="18" t="s">
+        <v>293</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" s="13" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="114" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="36" t="s">
+        <v>294</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="115"/>
+      <c r="B22" s="37" t="s">
+        <v>295</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="115"/>
+      <c r="B23" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" s="33" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="115"/>
+      <c r="B24" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="33">
+        <v>55303</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" s="17" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="115"/>
+      <c r="B25" s="38" t="s">
+        <v>296</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" s="17" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="115"/>
+      <c r="B26" s="38" t="s">
+        <v>492</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="115"/>
+      <c r="B27" s="37" t="s">
+        <v>297</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="115"/>
+      <c r="B28" s="37" t="s">
+        <v>298</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="115"/>
+      <c r="B29" s="37" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="115"/>
+      <c r="B30" s="37" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="115"/>
+      <c r="B31" s="37" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="115"/>
+      <c r="B32" s="37" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="115"/>
+      <c r="B33" s="37" t="s">
+        <v>483</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="115"/>
+      <c r="B34" s="37" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="116"/>
+      <c r="B35" s="39" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" s="13" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="104" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>477</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
+      <c r="N36" s="8"/>
+      <c r="O36" s="8"/>
+      <c r="P36" s="8"/>
+      <c r="Q36" s="8"/>
+      <c r="R36" s="8"/>
+      <c r="S36" s="8"/>
+      <c r="T36" s="8"/>
+      <c r="U36" s="8"/>
+      <c r="V36" s="8"/>
+    </row>
+    <row r="37" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="105"/>
+      <c r="B37" s="21" t="s">
+        <v>304</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="106"/>
+      <c r="B38" s="22" t="s">
+        <v>305</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="8"/>
+      <c r="O38" s="8"/>
+      <c r="P38" s="8"/>
+      <c r="Q38" s="8"/>
+      <c r="R38" s="8"/>
+      <c r="S38" s="8"/>
+      <c r="T38" s="8"/>
+      <c r="U38" s="8"/>
+      <c r="V38" s="8"/>
+    </row>
+    <row r="39" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39" s="44" t="s">
+        <v>306</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" s="13" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="107" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40" s="41" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="108"/>
+      <c r="B41" s="42" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" s="13" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="112" t="s">
+        <v>283</v>
+      </c>
+      <c r="B42" s="55" t="s">
+        <v>284</v>
+      </c>
+      <c r="C42" s="8"/>
+    </row>
+    <row r="43" spans="1:22" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="113"/>
+      <c r="B43" s="56" t="s">
+        <v>263</v>
+      </c>
+      <c r="C43" s="23"/>
+    </row>
+    <row r="44" spans="1:22" s="13" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="86" t="s">
+        <v>117</v>
+      </c>
+      <c r="B44" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="C44" s="24" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" s="17" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="87"/>
+      <c r="B45" s="51" t="s">
+        <v>119</v>
+      </c>
+      <c r="C45" s="46">
+        <v>123456789</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="87"/>
+      <c r="B46" s="52" t="s">
+        <v>120</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="87"/>
+      <c r="B47" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="C47" s="15">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="87"/>
+      <c r="B48" s="52" t="s">
+        <v>122</v>
+      </c>
+      <c r="C48" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="87"/>
+      <c r="B49" s="52" t="s">
+        <v>123</v>
+      </c>
+      <c r="C49" s="47">
+        <v>41944</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="87"/>
+      <c r="B50" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="C50" s="15"/>
+    </row>
+    <row r="51" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="87"/>
+      <c r="B51" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="87"/>
+      <c r="B52" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="C52" s="15" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="87"/>
+      <c r="B53" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="C53" s="15" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="87"/>
+      <c r="B54" s="52" t="s">
+        <v>128</v>
+      </c>
+      <c r="C54" s="15" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="87"/>
+      <c r="B55" s="52" t="s">
+        <v>129</v>
+      </c>
+      <c r="C55" s="15" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="87"/>
+      <c r="B56" s="52" t="s">
+        <v>130</v>
+      </c>
+      <c r="C56" s="15" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" s="17" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="87"/>
+      <c r="B57" s="51" t="s">
+        <v>131</v>
+      </c>
+      <c r="C57" s="46" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" s="17" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="87"/>
+      <c r="B58" s="51" t="s">
+        <v>132</v>
+      </c>
+      <c r="C58" s="46"/>
+    </row>
+    <row r="59" spans="1:3" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="88"/>
+      <c r="B59" s="53" t="s">
+        <v>133</v>
+      </c>
+      <c r="C59" s="48"/>
+    </row>
+    <row r="60" spans="1:3" s="13" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="89" t="s">
+        <v>364</v>
+      </c>
+      <c r="B60" s="70" t="s">
+        <v>365</v>
+      </c>
+      <c r="C60" s="24"/>
+    </row>
+    <row r="61" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="90"/>
+      <c r="B61" s="71" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="90"/>
+      <c r="B62" s="71" t="str">
+        <f>B61 &amp; " Verified (Y/N)"</f>
+        <v>Heat Amount Verified (Y/N)</v>
+      </c>
+      <c r="C62" s="15"/>
+    </row>
+    <row r="63" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="90"/>
+      <c r="B63" s="71" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="90"/>
+      <c r="B64" s="71" t="str">
+        <f>B63 &amp; " Verified (Y/N)"</f>
+        <v>Air Amount Verified (Y/N)</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="90"/>
+      <c r="B65" s="71" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="90"/>
+      <c r="B66" s="71" t="str">
+        <f>B65 &amp; " Verified (Y/N)"</f>
+        <v>Electric Amount Verified (Y/N)</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="90"/>
+      <c r="B67" s="71" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="90"/>
+      <c r="B68" s="71" t="str">
+        <f>B67 &amp; " Verified (Y/N)"</f>
+        <v>Fuel Amount Verified (Y/N)</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="90"/>
+      <c r="B69" s="71" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="90"/>
+      <c r="B70" s="71" t="str">
+        <f>B69 &amp; " Verified (Y/N)"</f>
+        <v>Garbage Amount Verified (Y/N)</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="90"/>
+      <c r="B71" s="71" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="90"/>
+      <c r="B72" s="71" t="str">
+        <f>B71 &amp; " Verified (Y/N)"</f>
+        <v>Water Amount Verified (Y/N)</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="90"/>
+      <c r="B73" s="71" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="90"/>
+      <c r="B74" s="71" t="str">
+        <f>B73 &amp; " Verified (Y/N)"</f>
+        <v>Sewer Amount Verified (Y/N)</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="90"/>
+      <c r="B75" s="71" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="90"/>
+      <c r="B76" s="71" t="str">
+        <f>B75 &amp; " Verified (Y/N)"</f>
+        <v>Other Acut Amount Verified (Y/N)</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="91"/>
+      <c r="B77" s="72" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="89" t="s">
+        <v>180</v>
+      </c>
+      <c r="B78" s="70" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" s="90"/>
+      <c r="B79" s="71" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" s="90"/>
+      <c r="B80" s="71" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" s="90"/>
+      <c r="B81" s="71" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" s="90"/>
+      <c r="B82" s="71" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" s="90"/>
+      <c r="B83" s="71" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" s="90"/>
+      <c r="B84" s="71" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" s="90"/>
+      <c r="B85" s="71" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" s="90"/>
+      <c r="B86" s="71" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" s="90"/>
+      <c r="B87" s="71" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" s="90"/>
+      <c r="B88" s="71" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" s="90"/>
+      <c r="B89" s="71" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" s="90"/>
+      <c r="B90" s="71" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" s="90"/>
+      <c r="B91" s="71" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" s="90"/>
+      <c r="B92" s="71" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" s="90"/>
+      <c r="B93" s="71" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" s="90"/>
+      <c r="B94" s="71" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" s="90"/>
+      <c r="B95" s="71" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" s="90"/>
+      <c r="B96" s="71" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" s="90"/>
+      <c r="B97" s="71" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" s="90"/>
+      <c r="B98" s="71" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" s="90"/>
+      <c r="B99" s="71" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" s="90"/>
+      <c r="B100" s="71" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" s="90"/>
+      <c r="B101" s="71" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" s="90"/>
+      <c r="B102" s="71" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103" s="90"/>
+      <c r="B103" s="71" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104" s="90"/>
+      <c r="B104" s="71" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105" s="90"/>
+      <c r="B105" s="71" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106" s="90"/>
+      <c r="B106" s="71" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107" s="90"/>
+      <c r="B107" s="71" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108" s="90"/>
+      <c r="B108" s="71" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109" s="90"/>
+      <c r="B109" s="71" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110" s="90"/>
+      <c r="B110" s="71" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="91"/>
+      <c r="B111" s="72" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="89" t="s">
+        <v>102</v>
+      </c>
+      <c r="B112" s="70" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113" s="90"/>
+      <c r="B113" s="71" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114" s="90"/>
+      <c r="B114" s="71" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A115" s="90"/>
+      <c r="B115" s="71" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A116" s="90"/>
+      <c r="B116" s="71" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A117" s="90"/>
+      <c r="B117" s="71" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A118" s="90"/>
+      <c r="B118" s="71" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119" s="90"/>
+      <c r="B119" s="71" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A120" s="90"/>
+      <c r="B120" s="71" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A121" s="90"/>
+      <c r="B121" s="71" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A122" s="90"/>
+      <c r="B122" s="71" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A123" s="90"/>
+      <c r="B123" s="71" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A124" s="90"/>
+      <c r="B124" s="71" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A125" s="90"/>
+      <c r="B125" s="71" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="91"/>
+      <c r="B126" s="72" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="73" t="s">
+        <v>134</v>
+      </c>
+      <c r="B127" s="74" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="89" t="s">
+        <v>405</v>
+      </c>
+      <c r="B128" s="70" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A129" s="90"/>
+      <c r="B129" s="71" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A130" s="90"/>
+      <c r="B130" s="71" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A131" s="90"/>
+      <c r="B131" s="71" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A132" s="90"/>
+      <c r="B132" s="71" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A133" s="90"/>
+      <c r="B133" s="71" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A134" s="90"/>
+      <c r="B134" s="71" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A135" s="90"/>
+      <c r="B135" s="71" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A136" s="90"/>
+      <c r="B136" s="71" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A137" s="90"/>
+      <c r="B137" s="71" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A138" s="90"/>
+      <c r="B138" s="71" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A139" s="90"/>
+      <c r="B139" s="71" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A140" s="90"/>
+      <c r="B140" s="71" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A141" s="90"/>
+      <c r="B141" s="71" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A142" s="90"/>
+      <c r="B142" s="71" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A143" s="90"/>
+      <c r="B143" s="71" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A144" s="90"/>
+      <c r="B144" s="71" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A145" s="90"/>
+      <c r="B145" s="71" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A146" s="90"/>
+      <c r="B146" s="71" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A147" s="90"/>
+      <c r="B147" s="71" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A148" s="90"/>
+      <c r="B148" s="71" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A149" s="90"/>
+      <c r="B149" s="71" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A150" s="90"/>
+      <c r="B150" s="71" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A151" s="90"/>
+      <c r="B151" s="71" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A152" s="90"/>
+      <c r="B152" s="71" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A153" s="90"/>
+      <c r="B153" s="71" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A154" s="91"/>
+      <c r="B154" s="72" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A155" s="89" t="s">
+        <v>321</v>
+      </c>
+      <c r="B155" s="70" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A156" s="90"/>
+      <c r="B156" s="71" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A157" s="90"/>
+      <c r="B157" s="71" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A158" s="90"/>
+      <c r="B158" s="71" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A159" s="90"/>
+      <c r="B159" s="71" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A160" s="90"/>
+      <c r="B160" s="71" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A161" s="90"/>
+      <c r="B161" s="71" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A162" s="90"/>
+      <c r="B162" s="71" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A163" s="90"/>
+      <c r="B163" s="71" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A164" s="90"/>
+      <c r="B164" s="71" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A165" s="90"/>
+      <c r="B165" s="71" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A166" s="91"/>
+      <c r="B166" s="72" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A167" s="89" t="s">
+        <v>12</v>
+      </c>
+      <c r="B167" s="70" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A168" s="90"/>
+      <c r="B168" s="71" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A169" s="90"/>
+      <c r="B169" s="71" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A170" s="90"/>
+      <c r="B170" s="71" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A171" s="90"/>
+      <c r="B171" s="71" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A172" s="90"/>
+      <c r="B172" s="71" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A173" s="90"/>
+      <c r="B173" s="71" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A174" s="90"/>
+      <c r="B174" s="71" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A175" s="90"/>
+      <c r="B175" s="71" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A176" s="90"/>
+      <c r="B176" s="71" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A177" s="90"/>
+      <c r="B177" s="71" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A178" s="90"/>
+      <c r="B178" s="71" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A179" s="90"/>
+      <c r="B179" s="71" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A180" s="90"/>
+      <c r="B180" s="71" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A181" s="90"/>
+      <c r="B181" s="71" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A182" s="91"/>
+      <c r="B182" s="72" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A183" s="89" t="s">
+        <v>95</v>
+      </c>
+      <c r="B183" s="70" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A184" s="90"/>
+      <c r="B184" s="71" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A185" s="91"/>
+      <c r="B185" s="72" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" s="13" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A186" s="109" t="s">
+        <v>20</v>
+      </c>
+      <c r="B186" s="65" t="s">
+        <v>339</v>
+      </c>
+      <c r="C186" s="13" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A187" s="110"/>
+      <c r="B187" s="66" t="s">
+        <v>340</v>
+      </c>
+      <c r="C187" s="8" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A188" s="110"/>
+      <c r="B188" s="66" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A189" s="110"/>
+      <c r="B189" s="66" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A190" s="111"/>
+      <c r="B190" s="67" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A191" s="89" t="s">
+        <v>96</v>
+      </c>
+      <c r="B191" s="70" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A192" s="90"/>
+      <c r="B192" s="71" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A193" s="90"/>
+      <c r="B193" s="71" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A194" s="90"/>
+      <c r="B194" s="71" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A195" s="91"/>
+      <c r="B195" s="72" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A196" s="89" t="s">
+        <v>393</v>
+      </c>
+      <c r="B196" s="75" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A197" s="90"/>
+      <c r="B197" s="76" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A198" s="90"/>
+      <c r="B198" s="76" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A199" s="90"/>
+      <c r="B199" s="76" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A200" s="90"/>
+      <c r="B200" s="76" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A201" s="90"/>
+      <c r="B201" s="76" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A202" s="90"/>
+      <c r="B202" s="76" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A203" s="90"/>
+      <c r="B203" s="76" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A204" s="90"/>
+      <c r="B204" s="76" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A205" s="90"/>
+      <c r="B205" s="76" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A206" s="91"/>
+      <c r="B206" s="72" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A207" s="89" t="s">
+        <v>101</v>
+      </c>
+      <c r="B207" s="70" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A208" s="90"/>
+      <c r="B208" s="71" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A209" s="90"/>
+      <c r="B209" s="71" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A210" s="90"/>
+      <c r="B210" s="71" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A211" s="90"/>
+      <c r="B211" s="71" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A212" s="90"/>
+      <c r="B212" s="71" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A213" s="90"/>
+      <c r="B213" s="71" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A214" s="90"/>
+      <c r="B214" s="71" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A215" s="90"/>
+      <c r="B215" s="71" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A216" s="90"/>
+      <c r="B216" s="71" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A217" s="91"/>
+      <c r="B217" s="72" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A218" s="98" t="s">
+        <v>8</v>
+      </c>
+      <c r="B218" s="77" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A219" s="99"/>
+      <c r="B219" s="78" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A220" s="100"/>
+      <c r="B220" s="79" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A221" s="89" t="s">
+        <v>380</v>
+      </c>
+      <c r="B221" s="70" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A222" s="90"/>
+      <c r="B222" s="71" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A223" s="90"/>
+      <c r="B223" s="71" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A224" s="90"/>
+      <c r="B224" s="71" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A225" s="90"/>
+      <c r="B225" s="71" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A226" s="90"/>
+      <c r="B226" s="71" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A227" s="90"/>
+      <c r="B227" s="71" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A228" s="91"/>
+      <c r="B228" s="72" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A229" s="89" t="s">
+        <v>27</v>
+      </c>
+      <c r="B229" s="70" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A230" s="90"/>
+      <c r="B230" s="71" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A231" s="90"/>
+      <c r="B231" s="71" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A232" s="90"/>
+      <c r="B232" s="71" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A233" s="90"/>
+      <c r="B233" s="71" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A234" s="91"/>
+      <c r="B234" s="72" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A235" s="117" t="s">
+        <v>261</v>
+      </c>
+      <c r="B235" s="77" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A236" s="118"/>
+      <c r="B236" s="78" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A237" s="118"/>
+      <c r="B237" s="78" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A238" s="118"/>
+      <c r="B238" s="78" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A239" s="118"/>
+      <c r="B239" s="78" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A240" s="118"/>
+      <c r="B240" s="78" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A241" s="118"/>
+      <c r="B241" s="78" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A242" s="119"/>
+      <c r="B242" s="79" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A243" s="89" t="s">
+        <v>309</v>
+      </c>
+      <c r="B243" s="70" t="s">
+        <v>13</v>
+      </c>
+      <c r="C243" s="13" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A244" s="90"/>
+      <c r="B244" s="71" t="s">
+        <v>14</v>
+      </c>
+      <c r="C244" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A245" s="90"/>
+      <c r="B245" s="71" t="s">
+        <v>271</v>
+      </c>
+      <c r="C245" s="8" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A246" s="90"/>
+      <c r="B246" s="71" t="s">
+        <v>310</v>
+      </c>
+      <c r="C246" s="54">
+        <v>40452</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A247" s="90"/>
+      <c r="B247" s="71" t="s">
+        <v>311</v>
+      </c>
+      <c r="C247" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A248" s="90"/>
+      <c r="B248" s="71" t="s">
+        <v>312</v>
+      </c>
+      <c r="C248" s="8">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A249" s="91"/>
+      <c r="B249" s="72" t="s">
+        <v>313</v>
+      </c>
+      <c r="C249" s="19">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A250" s="89" t="s">
+        <v>314</v>
+      </c>
+      <c r="B250" s="70" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A251" s="90"/>
+      <c r="B251" s="71" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A252" s="90"/>
+      <c r="B252" s="71" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A253" s="90"/>
+      <c r="B253" s="71" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A254" s="90"/>
+      <c r="B254" s="71" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A255" s="90"/>
+      <c r="B255" s="71" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A256" s="91"/>
+      <c r="B256" s="72" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="257" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A257" s="89" t="s">
+        <v>315</v>
+      </c>
+      <c r="B257" s="70" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="258" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A258" s="90"/>
+      <c r="B258" s="71" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="259" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A259" s="90"/>
+      <c r="B259" s="71" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="260" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A260" s="90"/>
+      <c r="B260" s="71" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="261" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A261" s="90"/>
+      <c r="B261" s="71" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="262" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A262" s="90"/>
+      <c r="B262" s="71" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="263" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A263" s="91"/>
+      <c r="B263" s="72" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="264" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A264" s="89" t="s">
+        <v>100</v>
+      </c>
+      <c r="B264" s="70" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="265" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A265" s="90"/>
+      <c r="B265" s="71" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="266" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A266" s="90"/>
+      <c r="B266" s="71" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="267" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A267" s="90"/>
+      <c r="B267" s="71" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="268" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A268" s="91"/>
+      <c r="B268" s="72" t="s">
+        <v>80</v>
+      </c>
+      <c r="C268" s="25"/>
+      <c r="D268" s="25"/>
+      <c r="G268" s="25"/>
+      <c r="H268" s="25"/>
+      <c r="I268" s="25"/>
+      <c r="J268" s="25"/>
+      <c r="K268" s="25"/>
+    </row>
+    <row r="269" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A269" s="89" t="s">
+        <v>334</v>
+      </c>
+      <c r="B269" s="70" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="270" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A270" s="90"/>
+      <c r="B270" s="71" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="271" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A271" s="90"/>
+      <c r="B271" s="71" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="272" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A272" s="91"/>
+      <c r="B272" s="72" t="s">
+        <v>338</v>
+      </c>
+      <c r="C272" s="29"/>
+      <c r="D272" s="29"/>
+      <c r="E272" s="29"/>
+      <c r="F272" s="29"/>
+      <c r="G272" s="29"/>
+      <c r="H272" s="29"/>
+      <c r="I272" s="29"/>
+      <c r="J272" s="29"/>
+      <c r="K272" s="29"/>
+    </row>
+    <row r="273" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A273" s="80" t="s">
+        <v>241</v>
+      </c>
+      <c r="B273" s="81" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="274" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A274" s="89" t="s">
+        <v>136</v>
+      </c>
+      <c r="B274" s="70" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="275" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A275" s="90"/>
+      <c r="B275" s="71" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="276" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A276" s="90"/>
+      <c r="B276" s="71" t="s">
+        <v>448</v>
+      </c>
+      <c r="C276" s="31"/>
+      <c r="D276" s="31"/>
+      <c r="E276" s="31"/>
+      <c r="F276" s="31"/>
+      <c r="G276" s="31"/>
+      <c r="H276" s="31"/>
+      <c r="I276" s="31"/>
+      <c r="J276" s="31"/>
+      <c r="K276" s="31"/>
+    </row>
+    <row r="277" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A277" s="90"/>
+      <c r="B277" s="71" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="278" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A278" s="90"/>
+      <c r="B278" s="71" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="279" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A279" s="90"/>
+      <c r="B279" s="71" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="280" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A280" s="90"/>
+      <c r="B280" s="71" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="281" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A281" s="90"/>
+      <c r="B281" s="71" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="282" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A282" s="90"/>
+      <c r="B282" s="71" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="283" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A283" s="90"/>
+      <c r="B283" s="71" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="284" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A284" s="90"/>
+      <c r="B284" s="71" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="285" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A285" s="91"/>
+      <c r="B285" s="72" t="s">
+        <v>456</v>
+      </c>
+      <c r="C285" s="32"/>
+      <c r="D285" s="32"/>
+      <c r="E285" s="32"/>
+      <c r="F285" s="32"/>
+      <c r="G285" s="32"/>
+      <c r="H285" s="32"/>
+      <c r="I285" s="32"/>
+      <c r="J285" s="32"/>
+      <c r="K285" s="32"/>
+    </row>
+    <row r="286" spans="1:11" s="59" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A286" s="92" t="s">
+        <v>345</v>
+      </c>
+      <c r="B286" s="63" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="287" spans="1:11" s="60" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A287" s="93"/>
+      <c r="B287" s="51" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="288" spans="1:11" s="60" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A288" s="93"/>
+      <c r="B288" s="51" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" s="60" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A289" s="93"/>
+      <c r="B289" s="51" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" s="60" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A290" s="93"/>
+      <c r="B290" s="51" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" s="60" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A291" s="93"/>
+      <c r="B291" s="51" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" s="60" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A292" s="93"/>
+      <c r="B292" s="51" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" s="60" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A293" s="93"/>
+      <c r="B293" s="51" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" s="60" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A294" s="93"/>
+      <c r="B294" s="51" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" s="60" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A295" s="93"/>
+      <c r="B295" s="51" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" s="60" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A296" s="93"/>
+      <c r="B296" s="51" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" s="60" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A297" s="93"/>
+      <c r="B297" s="51" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" s="60" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A298" s="93"/>
+      <c r="B298" s="51" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" s="60" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A299" s="93"/>
+      <c r="B299" s="51" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" s="60" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A300" s="93"/>
+      <c r="B300" s="51" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" s="60" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A301" s="93"/>
+      <c r="B301" s="51" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" s="60" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A302" s="93"/>
+      <c r="B302" s="51" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" s="61" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A303" s="94"/>
+      <c r="B303" s="53" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A304" s="89" t="s">
+        <v>458</v>
+      </c>
+      <c r="B304" s="70" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A305" s="90"/>
+      <c r="B305" s="71" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A306" s="90"/>
+      <c r="B306" s="71" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A307" s="90"/>
+      <c r="B307" s="71" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A308" s="90"/>
+      <c r="B308" s="71" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A309" s="91"/>
+      <c r="B309" s="72" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A310" s="89" t="s">
+        <v>459</v>
+      </c>
+      <c r="B310" s="70" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A311" s="90"/>
+      <c r="B311" s="71" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A312" s="90"/>
+      <c r="B312" s="71" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A313" s="90"/>
+      <c r="B313" s="71" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A314" s="90"/>
+      <c r="B314" s="71" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A315" s="91"/>
+      <c r="B315" s="72" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A316" s="89" t="s">
+        <v>460</v>
+      </c>
+      <c r="B316" s="70" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A317" s="90"/>
+      <c r="B317" s="71" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A318" s="90"/>
+      <c r="B318" s="71" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A319" s="90"/>
+      <c r="B319" s="71" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A320" s="90"/>
+      <c r="B320" s="71" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A321" s="91"/>
+      <c r="B321" s="72" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" s="57" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A322" s="98" t="s">
+        <v>243</v>
+      </c>
+      <c r="B322" s="82" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A323" s="99"/>
+      <c r="B323" s="83" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A324" s="99"/>
+      <c r="B324" s="83" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A325" s="99"/>
+      <c r="B325" s="83" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A326" s="99"/>
+      <c r="B326" s="83" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A327" s="99"/>
+      <c r="B327" s="83" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A328" s="99"/>
+      <c r="B328" s="83" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A329" s="99"/>
+      <c r="B329" s="83" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A330" s="99"/>
+      <c r="B330" s="83" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A331" s="99"/>
+      <c r="B331" s="83" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A332" s="99"/>
+      <c r="B332" s="78" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A333" s="99"/>
+      <c r="B333" s="78" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A334" s="99"/>
+      <c r="B334" s="78" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A335" s="100"/>
+      <c r="B335" s="79" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A336" s="89" t="s">
+        <v>375</v>
+      </c>
+      <c r="B336" s="70" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A337" s="90"/>
+      <c r="B337" s="71" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A338" s="90"/>
+      <c r="B338" s="71" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A339" s="90"/>
+      <c r="B339" s="71" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A340" s="91"/>
+      <c r="B340" s="72" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A341" s="89" t="s">
+        <v>215</v>
+      </c>
+      <c r="B341" s="70" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A342" s="90"/>
+      <c r="B342" s="71" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A343" s="90"/>
+      <c r="B343" s="71" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A344" s="90"/>
+      <c r="B344" s="71" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A345" s="90"/>
+      <c r="B345" s="71" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A346" s="90"/>
+      <c r="B346" s="71" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A347" s="90"/>
+      <c r="B347" s="71" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A348" s="90"/>
+      <c r="B348" s="71" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A349" s="90"/>
+      <c r="B349" s="71" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A350" s="90"/>
+      <c r="B350" s="71" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A351" s="90"/>
+      <c r="B351" s="71" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A352" s="90"/>
+      <c r="B352" s="71" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A353" s="90"/>
+      <c r="B353" s="71" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A354" s="90"/>
+      <c r="B354" s="71" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A355" s="90"/>
+      <c r="B355" s="71" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A356" s="90"/>
+      <c r="B356" s="71" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A357" s="90"/>
+      <c r="B357" s="71" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A358" s="90"/>
+      <c r="B358" s="71" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A359" s="90"/>
+      <c r="B359" s="71" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A360" s="90"/>
+      <c r="B360" s="71" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A361" s="90"/>
+      <c r="B361" s="71" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A362" s="90"/>
+      <c r="B362" s="71" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A363" s="90"/>
+      <c r="B363" s="71" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A364" s="90"/>
+      <c r="B364" s="71" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A365" s="91"/>
+      <c r="B365" s="72" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A366" s="89" t="s">
+        <v>153</v>
+      </c>
+      <c r="B366" s="70" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A367" s="90"/>
+      <c r="B367" s="71" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A368" s="90"/>
+      <c r="B368" s="71" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A369" s="90"/>
+      <c r="B369" s="71" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A370" s="90"/>
+      <c r="B370" s="71" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A371" s="90"/>
+      <c r="B371" s="71" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A372" s="90"/>
+      <c r="B372" s="71" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A373" s="90"/>
+      <c r="B373" s="71" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A374" s="90"/>
+      <c r="B374" s="71" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A375" s="90"/>
+      <c r="B375" s="71" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A376" s="91"/>
+      <c r="B376" s="72" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A377" s="89" t="s">
+        <v>99</v>
+      </c>
+      <c r="B377" s="70" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A378" s="90"/>
+      <c r="B378" s="71" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A379" s="90"/>
+      <c r="B379" s="71" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A380" s="90"/>
+      <c r="B380" s="71" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A381" s="90"/>
+      <c r="B381" s="71" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A382" s="90"/>
+      <c r="B382" s="71" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A383" s="90"/>
+      <c r="B383" s="71" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A384" s="90"/>
+      <c r="B384" s="71" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A385" s="90"/>
+      <c r="B385" s="71" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A386" s="91"/>
+      <c r="B386" s="72" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A387" s="89" t="s">
+        <v>137</v>
+      </c>
+      <c r="B387" s="70" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A388" s="90"/>
+      <c r="B388" s="71" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A389" s="90"/>
+      <c r="B389" s="71" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A390" s="90"/>
+      <c r="B390" s="71" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A391" s="90"/>
+      <c r="B391" s="71" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A392" s="90"/>
+      <c r="B392" s="71" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A393" s="90"/>
+      <c r="B393" s="71" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A394" s="90"/>
+      <c r="B394" s="71" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A395" s="90"/>
+      <c r="B395" s="71" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A396" s="90"/>
+      <c r="B396" s="71" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A397" s="90"/>
+      <c r="B397" s="71" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A398" s="90"/>
+      <c r="B398" s="71" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A399" s="90"/>
+      <c r="B399" s="71" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A400" s="90"/>
+      <c r="B400" s="71" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A401" s="91"/>
+      <c r="B401" s="72" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A402" s="89" t="s">
+        <v>427</v>
+      </c>
+      <c r="B402" s="70" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A403" s="90"/>
+      <c r="B403" s="71" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A404" s="90"/>
+      <c r="B404" s="84" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A405" s="90"/>
+      <c r="B405" s="71" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A406" s="90"/>
+      <c r="B406" s="71" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A407" s="90"/>
+      <c r="B407" s="71" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A408" s="90"/>
+      <c r="B408" s="71" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A409" s="90"/>
+      <c r="B409" s="71" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A410" s="90"/>
+      <c r="B410" s="71" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A411" s="90"/>
+      <c r="B411" s="71" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A412" s="90"/>
+      <c r="B412" s="71" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A413" s="90"/>
+      <c r="B413" s="71" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A414" s="90"/>
+      <c r="B414" s="71" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A415" s="90"/>
+      <c r="B415" s="71" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A416" s="90"/>
+      <c r="B416" s="71" t="str">
+        <f>B415 &amp; " Verification"</f>
+        <v>Mortgage Pro Verification</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A417" s="90"/>
+      <c r="B417" s="71" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A418" s="90"/>
+      <c r="B418" s="71" t="str">
+        <f>B417 &amp; " Verification"</f>
+        <v>Insurance Retro Verification</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A419" s="90"/>
+      <c r="B419" s="71" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A420" s="90"/>
+      <c r="B420" s="71" t="str">
+        <f>B419 &amp; " Verification"</f>
+        <v>Insurance Pro Verification</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A421" s="90"/>
+      <c r="B421" s="71" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A422" s="90"/>
+      <c r="B422" s="71" t="str">
+        <f>B421 &amp; " Verification"</f>
+        <v>Taxes Retro Verification</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A423" s="90"/>
+      <c r="B423" s="71" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A424" s="90"/>
+      <c r="B424" s="71" t="str">
+        <f>B423 &amp; " Verification"</f>
+        <v>Taxes Pro Verification</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A425" s="90"/>
+      <c r="B425" s="71" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A426" s="90"/>
+      <c r="B426" s="71" t="str">
+        <f>B425 &amp; " Verification"</f>
+        <v>Room / Board Retro Verification</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A427" s="90"/>
+      <c r="B427" s="71" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A428" s="90"/>
+      <c r="B428" s="71" t="str">
+        <f>B427 &amp; " Verification"</f>
+        <v>Room / Board Pro Verification</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A429" s="90"/>
+      <c r="B429" s="71" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A430" s="90"/>
+      <c r="B430" s="71" t="str">
+        <f>B429 &amp; " Verification"</f>
+        <v>Garage Retro Verification</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A431" s="90"/>
+      <c r="B431" s="71" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A432" s="90"/>
+      <c r="B432" s="71" t="str">
+        <f>B431 &amp; " Verification"</f>
+        <v>Garage Pro Verification</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A433" s="90"/>
+      <c r="B433" s="71" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A434" s="90"/>
+      <c r="B434" s="71" t="str">
+        <f>B433 &amp; " Verification"</f>
+        <v>Subsidy Retro Verification</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A435" s="90"/>
+      <c r="B435" s="71" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A436" s="91"/>
+      <c r="B436" s="72" t="str">
+        <f>B435 &amp; " Verification"</f>
+        <v>Subsidy Pro Verification</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" s="64" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A437" s="95" t="s">
+        <v>389</v>
+      </c>
+      <c r="B437" s="62" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" s="17" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A438" s="96"/>
+      <c r="B438" s="68" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A439" s="97"/>
+      <c r="B439" s="69" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A440" s="89" t="s">
+        <v>92</v>
+      </c>
+      <c r="B440" s="70" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A441" s="90"/>
+      <c r="B441" s="71" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A442" s="90"/>
+      <c r="B442" s="71" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A443" s="91"/>
+      <c r="B443" s="72" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A444" s="89" t="s">
+        <v>98</v>
+      </c>
+      <c r="B444" s="70" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A445" s="90"/>
+      <c r="B445" s="71" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A446" s="90"/>
+      <c r="B446" s="71" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A447" s="90"/>
+      <c r="B447" s="71" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A448" s="90"/>
+      <c r="B448" s="71" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A449" s="90"/>
+      <c r="B449" s="71" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A450" s="90"/>
+      <c r="B450" s="71" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A451" s="90"/>
+      <c r="B451" s="71" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A452" s="90"/>
+      <c r="B452" s="71" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A453" s="90"/>
+      <c r="B453" s="71" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A454" s="90"/>
+      <c r="B454" s="71" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A455" s="91"/>
+      <c r="B455" s="72" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A456" s="89" t="s">
+        <v>97</v>
+      </c>
+      <c r="B456" s="70" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A457" s="90"/>
+      <c r="B457" s="71" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A458" s="90"/>
+      <c r="B458" s="71" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A459" s="90"/>
+      <c r="B459" s="71" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A460" s="90"/>
+      <c r="B460" s="71" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A461" s="90"/>
+      <c r="B461" s="71" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A462" s="90"/>
+      <c r="B462" s="71" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A463" s="90"/>
+      <c r="B463" s="71" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A464" s="90"/>
+      <c r="B464" s="71" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A465" s="91"/>
+      <c r="B465" s="72" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A466" s="98" t="s">
+        <v>270</v>
+      </c>
+      <c r="B466" s="77" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A467" s="99"/>
+      <c r="B467" s="78" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A468" s="99"/>
+      <c r="B468" s="78" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A469" s="99"/>
+      <c r="B469" s="78" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A470" s="99"/>
+      <c r="B470" s="78" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A471" s="99"/>
+      <c r="B471" s="78" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A472" s="99"/>
+      <c r="B472" s="78" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A473" s="99"/>
+      <c r="B473" s="78" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A474" s="99"/>
+      <c r="B474" s="78" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A475" s="99"/>
+      <c r="B475" s="78" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A476" s="99"/>
+      <c r="B476" s="78" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A477" s="100"/>
+      <c r="B477" s="79" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A478" s="89" t="s">
+        <v>316</v>
+      </c>
+      <c r="B478" s="70" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A479" s="90"/>
+      <c r="B479" s="71" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A480" s="90"/>
+      <c r="B480" s="71" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A481" s="90"/>
+      <c r="B481" s="71" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A482" s="90"/>
+      <c r="B482" s="71" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A483" s="91"/>
+      <c r="B483" s="72" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A484" s="89" t="s">
+        <v>319</v>
+      </c>
+      <c r="B484" s="70" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A485" s="90"/>
+      <c r="B485" s="71" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A486" s="90"/>
+      <c r="B486" s="71" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A487" s="90"/>
+      <c r="B487" s="71" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A488" s="90"/>
+      <c r="B488" s="71" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A489" s="91"/>
+      <c r="B489" s="72" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A490" s="89" t="s">
+        <v>320</v>
+      </c>
+      <c r="B490" s="70" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A491" s="90"/>
+      <c r="B491" s="71" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A492" s="90"/>
+      <c r="B492" s="71" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A493" s="90"/>
+      <c r="B493" s="71" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A494" s="90"/>
+      <c r="B494" s="71" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A495" s="91"/>
+      <c r="B495" s="72" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3" s="13" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A496" s="86" t="s">
+        <v>16</v>
+      </c>
+      <c r="B496" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="C496" s="13" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3" s="17" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A497" s="87"/>
+      <c r="B497" s="51" t="s">
+        <v>341</v>
+      </c>
+      <c r="C497" s="17" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A498" s="87"/>
+      <c r="B498" s="52" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A499" s="87"/>
+      <c r="B499" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="C499" s="54"/>
+    </row>
+    <row r="500" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A500" s="87"/>
+      <c r="B500" s="52" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3" s="17" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A501" s="87"/>
+      <c r="B501" s="51" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3" s="17" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A502" s="87"/>
+      <c r="B502" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="C502" s="17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A503" s="88"/>
+      <c r="B503" s="53" t="s">
+        <v>344</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="48">
+    <mergeCell ref="A456:A465"/>
+    <mergeCell ref="A466:A477"/>
+    <mergeCell ref="A478:A483"/>
+    <mergeCell ref="A484:A489"/>
+    <mergeCell ref="A490:A495"/>
+    <mergeCell ref="A496:A503"/>
+    <mergeCell ref="A377:A386"/>
+    <mergeCell ref="A387:A401"/>
+    <mergeCell ref="A402:A436"/>
+    <mergeCell ref="A437:A439"/>
+    <mergeCell ref="A440:A443"/>
+    <mergeCell ref="A444:A455"/>
+    <mergeCell ref="A310:A315"/>
+    <mergeCell ref="A316:A321"/>
+    <mergeCell ref="A322:A335"/>
+    <mergeCell ref="A336:A340"/>
+    <mergeCell ref="A341:A365"/>
+    <mergeCell ref="A366:A376"/>
+    <mergeCell ref="A257:A263"/>
+    <mergeCell ref="A264:A268"/>
+    <mergeCell ref="A269:A272"/>
+    <mergeCell ref="A274:A285"/>
+    <mergeCell ref="A286:A303"/>
+    <mergeCell ref="A304:A309"/>
+    <mergeCell ref="A218:A220"/>
+    <mergeCell ref="A221:A228"/>
+    <mergeCell ref="A229:A234"/>
+    <mergeCell ref="A235:A242"/>
+    <mergeCell ref="A243:A249"/>
+    <mergeCell ref="A250:A256"/>
+    <mergeCell ref="A167:A182"/>
+    <mergeCell ref="A183:A185"/>
+    <mergeCell ref="A186:A190"/>
+    <mergeCell ref="A191:A195"/>
+    <mergeCell ref="A196:A206"/>
+    <mergeCell ref="A207:A217"/>
+    <mergeCell ref="A44:A59"/>
+    <mergeCell ref="A60:A77"/>
+    <mergeCell ref="A78:A111"/>
+    <mergeCell ref="A112:A126"/>
+    <mergeCell ref="A128:A154"/>
+    <mergeCell ref="A155:A166"/>
+    <mergeCell ref="A5:A16"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="A21:A35"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A42:A43"/>
+  </mergeCells>
+  <dataValidations count="3">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="You must enter a five digit zip code." sqref="C24">
+      <formula1>10000</formula1>
+      <formula2>99999</formula2>
+    </dataValidation>
+    <dataValidation type="date" operator="greaterThan" showInputMessage="1" showErrorMessage="1" sqref="C4">
+      <formula1>1</formula1>
+    </dataValidation>
+    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:B4 D4:XFD4">
+      <formula1>1</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>controls!$E$2:$E$11</xm:f>
+          </x14:formula1>
+          <xm:sqref>C11</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>controls!$A$10:$A$11</xm:f>
+          </x14:formula1>
+          <xm:sqref>C10</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>controls!$C$2:$C$10</xm:f>
+          </x14:formula1>
+          <xm:sqref>C9</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>controls!$A$6:$A$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>C40</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>controls!$A$2:$A$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>C41:C42 C20 C14:C16 C496 C498 C27:C28 C39 C36:V38</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
